--- a/data_xlsx/USDCNH_即期汇率.xlsx
+++ b/data_xlsx/USDCNH_即期汇率.xlsx
@@ -95,7 +95,7 @@
         <v>41029.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>6.3005</v>
+        <v>6.3004999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -231,7 +231,7 @@
         <v>41052.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>6.3339</v>
+        <v>6.333900000000001</v>
       </c>
     </row>
     <row r="20">
@@ -239,7 +239,7 @@
         <v>41053.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>6.3431</v>
+        <v>6.343100000000001</v>
       </c>
     </row>
     <row r="21">
@@ -247,7 +247,7 @@
         <v>41054.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>6.3465</v>
+        <v>6.346499999999999</v>
       </c>
     </row>
     <row r="22">
@@ -287,7 +287,7 @@
         <v>41061.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>6.3681</v>
+        <v>6.368099999999999</v>
       </c>
     </row>
     <row r="27">
@@ -327,7 +327,7 @@
         <v>41068.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>6.3741</v>
+        <v>6.374099999999999</v>
       </c>
     </row>
     <row r="32">
@@ -343,7 +343,7 @@
         <v>41072.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>6.3711</v>
+        <v>6.371100000000001</v>
       </c>
     </row>
     <row r="34">
@@ -367,7 +367,7 @@
         <v>41075.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>6.3731</v>
+        <v>6.373100000000001</v>
       </c>
     </row>
     <row r="37">
@@ -447,7 +447,7 @@
         <v>41089.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>6.3551</v>
+        <v>6.355100000000001</v>
       </c>
     </row>
     <row r="47">
@@ -535,7 +535,7 @@
         <v>41106.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>6.3751</v>
+        <v>6.375100000000001</v>
       </c>
     </row>
     <row r="58">
@@ -543,7 +543,7 @@
         <v>41107.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>6.3751</v>
+        <v>6.375100000000001</v>
       </c>
     </row>
     <row r="59">
@@ -575,7 +575,7 @@
         <v>41113.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>6.3869</v>
+        <v>6.386899999999999</v>
       </c>
     </row>
     <row r="63">
@@ -607,7 +607,7 @@
         <v>41117.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>6.3825</v>
+        <v>6.382499999999999</v>
       </c>
     </row>
     <row r="67">
@@ -639,7 +639,7 @@
         <v>41123.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>6.3901</v>
+        <v>6.3900999999999994</v>
       </c>
     </row>
     <row r="71">
@@ -655,7 +655,7 @@
         <v>41127.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>6.3755</v>
+        <v>6.375500000000001</v>
       </c>
     </row>
     <row r="73">
@@ -687,7 +687,7 @@
         <v>41131.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>6.3663</v>
+        <v>6.366300000000001</v>
       </c>
     </row>
     <row r="77">
@@ -743,7 +743,7 @@
         <v>41142.0</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>6.3575</v>
+        <v>6.357500000000001</v>
       </c>
     </row>
     <row r="84">
@@ -815,7 +815,7 @@
         <v>41155.0</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>6.3511</v>
+        <v>6.351100000000001</v>
       </c>
     </row>
     <row r="93">
@@ -983,7 +983,7 @@
         <v>41184.0</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>6.3031</v>
+        <v>6.303100000000001</v>
       </c>
     </row>
     <row r="114">
@@ -999,7 +999,7 @@
         <v>41186.0</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>6.3017</v>
+        <v>6.301699999999999</v>
       </c>
     </row>
     <row r="116">
@@ -1007,7 +1007,7 @@
         <v>41187.0</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>6.2957</v>
+        <v>6.295699999999999</v>
       </c>
     </row>
     <row r="117">
@@ -1127,7 +1127,7 @@
         <v>41208.0</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>6.2453</v>
+        <v>6.245299999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1223,7 +1223,7 @@
         <v>41226.0</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>6.2187</v>
+        <v>6.218700000000001</v>
       </c>
     </row>
     <row r="144">
@@ -1383,7 +1383,7 @@
         <v>41254.0</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>6.2279</v>
+        <v>6.227900000000001</v>
       </c>
     </row>
     <row r="164">
@@ -1407,7 +1407,7 @@
         <v>41257.0</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>6.2187</v>
+        <v>6.218700000000001</v>
       </c>
     </row>
     <row r="167">
@@ -1447,7 +1447,7 @@
         <v>41264.0</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>6.2237</v>
+        <v>6.223699999999999</v>
       </c>
     </row>
     <row r="172">
@@ -1455,7 +1455,7 @@
         <v>41267.0</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>6.2235</v>
+        <v>6.2235000000000005</v>
       </c>
     </row>
     <row r="173">
@@ -1487,7 +1487,7 @@
         <v>41271.0</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>6.2263</v>
+        <v>6.226300000000001</v>
       </c>
     </row>
     <row r="177">
@@ -1511,7 +1511,7 @@
         <v>41277.0</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>6.2127</v>
+        <v>6.212700000000001</v>
       </c>
     </row>
     <row r="180">
@@ -1559,7 +1559,7 @@
         <v>41292.0</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>6.1891</v>
+        <v>6.189100000000001</v>
       </c>
     </row>
     <row r="186">
@@ -1575,7 +1575,7 @@
         <v>41296.0</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>6.1965</v>
+        <v>6.1964999999999995</v>
       </c>
     </row>
     <row r="188">
@@ -1607,7 +1607,7 @@
         <v>41302.0</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>6.2347</v>
+        <v>6.234700000000001</v>
       </c>
     </row>
     <row r="192">
@@ -1615,7 +1615,7 @@
         <v>41303.0</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>6.2195</v>
+        <v>6.219500000000001</v>
       </c>
     </row>
     <row r="193">
@@ -1663,7 +1663,7 @@
         <v>41311.0</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>6.2151</v>
+        <v>6.2151000000000005</v>
       </c>
     </row>
     <row r="199">
@@ -1687,7 +1687,7 @@
         <v>41316.0</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>6.2201</v>
+        <v>6.2200999999999995</v>
       </c>
     </row>
     <row r="202">
@@ -1791,7 +1791,7 @@
         <v>41333.0</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>6.2211</v>
+        <v>6.221100000000001</v>
       </c>
     </row>
     <row r="215">
@@ -1799,7 +1799,7 @@
         <v>41334.0</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>6.2207</v>
+        <v>6.220700000000001</v>
       </c>
     </row>
     <row r="216">
@@ -1807,7 +1807,7 @@
         <v>41337.0</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>6.2241</v>
+        <v>6.224099999999999</v>
       </c>
     </row>
     <row r="217">
@@ -1871,7 +1871,7 @@
         <v>41347.0</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>6.2093</v>
+        <v>6.209299999999999</v>
       </c>
     </row>
     <row r="225">
@@ -1895,7 +1895,7 @@
         <v>41352.0</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>6.2135</v>
+        <v>6.213500000000001</v>
       </c>
     </row>
     <row r="228">
@@ -1903,7 +1903,7 @@
         <v>41353.0</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>6.2061</v>
+        <v>6.206099999999999</v>
       </c>
     </row>
     <row r="229">
@@ -1911,7 +1911,7 @@
         <v>41354.0</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>6.2057</v>
+        <v>6.205699999999999</v>
       </c>
     </row>
     <row r="230">
@@ -1935,7 +1935,7 @@
         <v>41359.0</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>6.2045</v>
+        <v>6.2044999999999995</v>
       </c>
     </row>
     <row r="233">
@@ -1943,7 +1943,7 @@
         <v>41360.0</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>6.2107</v>
+        <v>6.210700000000001</v>
       </c>
     </row>
     <row r="234">
@@ -1951,7 +1951,7 @@
         <v>41361.0</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>6.2075</v>
+        <v>6.2075000000000005</v>
       </c>
     </row>
     <row r="235">
@@ -1967,7 +1967,7 @@
         <v>41365.0</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>6.2031</v>
+        <v>6.203100000000001</v>
       </c>
     </row>
     <row r="237">
@@ -1991,7 +1991,7 @@
         <v>41368.0</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>6.2005</v>
+        <v>6.200499999999999</v>
       </c>
     </row>
     <row r="240">
@@ -2007,7 +2007,7 @@
         <v>41372.0</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>6.1977</v>
+        <v>6.197699999999999</v>
       </c>
     </row>
     <row r="242">
@@ -2015,7 +2015,7 @@
         <v>41373.0</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>6.1905</v>
+        <v>6.190499999999999</v>
       </c>
     </row>
     <row r="243">
@@ -2047,7 +2047,7 @@
         <v>41379.0</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>6.1955</v>
+        <v>6.195500000000001</v>
       </c>
     </row>
     <row r="247">
@@ -2087,7 +2087,7 @@
         <v>41386.0</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>6.1797</v>
+        <v>6.1796999999999995</v>
       </c>
     </row>
     <row r="252">
@@ -2111,7 +2111,7 @@
         <v>41389.0</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>6.1673</v>
+        <v>6.167299999999999</v>
       </c>
     </row>
     <row r="255">
@@ -2127,7 +2127,7 @@
         <v>41393.0</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>6.1643</v>
+        <v>6.164300000000001</v>
       </c>
     </row>
     <row r="257">
@@ -2135,7 +2135,7 @@
         <v>41394.0</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>6.1631</v>
+        <v>6.163100000000001</v>
       </c>
     </row>
     <row r="258">
@@ -2151,7 +2151,7 @@
         <v>41396.0</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>6.1597</v>
+        <v>6.159699999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2175,7 +2175,7 @@
         <v>41401.0</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>6.1563</v>
+        <v>6.156300000000001</v>
       </c>
     </row>
     <row r="263">
@@ -2191,7 +2191,7 @@
         <v>41403.0</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>6.1427</v>
+        <v>6.1427000000000005</v>
       </c>
     </row>
     <row r="265">
@@ -2207,7 +2207,7 @@
         <v>41407.0</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>6.1441</v>
+        <v>6.144099999999999</v>
       </c>
     </row>
     <row r="267">
@@ -2215,7 +2215,7 @@
         <v>41408.0</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>6.1417</v>
+        <v>6.141699999999999</v>
       </c>
     </row>
     <row r="268">
@@ -2223,7 +2223,7 @@
         <v>41409.0</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>6.1437</v>
+        <v>6.143699999999999</v>
       </c>
     </row>
     <row r="269">
@@ -2247,7 +2247,7 @@
         <v>41414.0</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>6.1303</v>
+        <v>6.130300000000001</v>
       </c>
     </row>
     <row r="272">
@@ -2255,7 +2255,7 @@
         <v>41415.0</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>6.1329</v>
+        <v>6.132899999999999</v>
       </c>
     </row>
     <row r="273">
@@ -2279,7 +2279,7 @@
         <v>41418.0</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>6.1235</v>
+        <v>6.123500000000001</v>
       </c>
     </row>
     <row r="276">
@@ -2287,7 +2287,7 @@
         <v>41421.0</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>6.1151</v>
+        <v>6.115100000000001</v>
       </c>
     </row>
     <row r="277">
@@ -2319,7 +2319,7 @@
         <v>41425.0</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>6.1487</v>
+        <v>6.148700000000001</v>
       </c>
     </row>
     <row r="281">
@@ -2327,7 +2327,7 @@
         <v>41428.0</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>6.1265</v>
+        <v>6.126499999999999</v>
       </c>
     </row>
     <row r="282">
@@ -2359,7 +2359,7 @@
         <v>41432.0</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>6.1387</v>
+        <v>6.138700000000001</v>
       </c>
     </row>
     <row r="286">
@@ -2367,7 +2367,7 @@
         <v>41435.0</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>6.1487</v>
+        <v>6.148700000000001</v>
       </c>
     </row>
     <row r="287">
@@ -2383,7 +2383,7 @@
         <v>41437.0</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>6.1463</v>
+        <v>6.146300000000001</v>
       </c>
     </row>
     <row r="289">
@@ -2391,7 +2391,7 @@
         <v>41438.0</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>6.1391</v>
+        <v>6.139100000000001</v>
       </c>
     </row>
     <row r="290">
@@ -2407,7 +2407,7 @@
         <v>41442.0</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>6.1313</v>
+        <v>6.1312999999999995</v>
       </c>
     </row>
     <row r="292">
@@ -2423,7 +2423,7 @@
         <v>41444.0</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>6.1325</v>
+        <v>6.132499999999999</v>
       </c>
     </row>
     <row r="294">
@@ -2463,7 +2463,7 @@
         <v>41451.0</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>6.1477</v>
+        <v>6.1476999999999995</v>
       </c>
     </row>
     <row r="299">
@@ -2495,7 +2495,7 @@
         <v>41457.0</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>6.1307</v>
+        <v>6.130700000000001</v>
       </c>
     </row>
     <row r="303">
@@ -2519,7 +2519,7 @@
         <v>41460.0</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>6.1387</v>
+        <v>6.138700000000001</v>
       </c>
     </row>
     <row r="306">
@@ -2535,7 +2535,7 @@
         <v>41464.0</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>6.1383</v>
+        <v>6.138300000000001</v>
       </c>
     </row>
     <row r="308">
@@ -2567,7 +2567,7 @@
         <v>41470.0</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>6.1407</v>
+        <v>6.140700000000001</v>
       </c>
     </row>
     <row r="312">
@@ -2575,7 +2575,7 @@
         <v>41471.0</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>6.1357</v>
+        <v>6.135699999999999</v>
       </c>
     </row>
     <row r="313">
@@ -2583,7 +2583,7 @@
         <v>41472.0</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>6.1375</v>
+        <v>6.137500000000001</v>
       </c>
     </row>
     <row r="314">
@@ -2591,7 +2591,7 @@
         <v>41473.0</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>6.1409</v>
+        <v>6.140899999999999</v>
       </c>
     </row>
     <row r="315">
@@ -2631,7 +2631,7 @@
         <v>41480.0</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>6.1365</v>
+        <v>6.136499999999999</v>
       </c>
     </row>
     <row r="320">
@@ -2655,7 +2655,7 @@
         <v>41485.0</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>6.1347</v>
+        <v>6.1347000000000005</v>
       </c>
     </row>
     <row r="323">
@@ -2671,7 +2671,7 @@
         <v>41487.0</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>6.1329</v>
+        <v>6.132899999999999</v>
       </c>
     </row>
     <row r="325">
@@ -2695,7 +2695,7 @@
         <v>41492.0</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>6.1205</v>
+        <v>6.120499999999999</v>
       </c>
     </row>
     <row r="328">
@@ -2703,7 +2703,7 @@
         <v>41493.0</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>6.1179</v>
+        <v>6.117900000000001</v>
       </c>
     </row>
     <row r="329">
@@ -2767,7 +2767,7 @@
         <v>41505.0</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>6.1165</v>
+        <v>6.116499999999999</v>
       </c>
     </row>
     <row r="337">
@@ -2831,7 +2831,7 @@
         <v>41515.0</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>6.1175</v>
+        <v>6.117500000000001</v>
       </c>
     </row>
     <row r="345">
@@ -2839,7 +2839,7 @@
         <v>41516.0</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>6.1165</v>
+        <v>6.116499999999999</v>
       </c>
     </row>
     <row r="346">
@@ -2863,7 +2863,7 @@
         <v>41521.0</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>6.1131</v>
+        <v>6.113100000000001</v>
       </c>
     </row>
     <row r="349">
@@ -2871,7 +2871,7 @@
         <v>41522.0</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>6.1151</v>
+        <v>6.115100000000001</v>
       </c>
     </row>
     <row r="350">
@@ -2887,7 +2887,7 @@
         <v>41526.0</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>6.1075</v>
+        <v>6.107500000000001</v>
       </c>
     </row>
     <row r="352">
@@ -2895,7 +2895,7 @@
         <v>41527.0</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>6.1105</v>
+        <v>6.110499999999999</v>
       </c>
     </row>
     <row r="353">
@@ -2903,7 +2903,7 @@
         <v>41528.0</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>6.1097</v>
+        <v>6.109699999999999</v>
       </c>
     </row>
     <row r="354">
@@ -2943,7 +2943,7 @@
         <v>41535.0</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>6.1051</v>
+        <v>6.105100000000001</v>
       </c>
     </row>
     <row r="359">
@@ -2951,7 +2951,7 @@
         <v>41536.0</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>6.1097</v>
+        <v>6.109699999999999</v>
       </c>
     </row>
     <row r="360">
@@ -2999,7 +2999,7 @@
         <v>41544.0</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>6.1171</v>
+        <v>6.117100000000001</v>
       </c>
     </row>
     <row r="366">
@@ -3007,7 +3007,7 @@
         <v>41547.0</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>6.1173</v>
+        <v>6.117299999999999</v>
       </c>
     </row>
     <row r="367">
@@ -3103,7 +3103,7 @@
         <v>41563.0</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>6.0971</v>
+        <v>6.097100000000001</v>
       </c>
     </row>
     <row r="379">
@@ -3143,7 +3143,7 @@
         <v>41570.0</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>6.0851</v>
+        <v>6.085100000000001</v>
       </c>
     </row>
     <row r="384">
@@ -3151,7 +3151,7 @@
         <v>41571.0</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>6.0773</v>
+        <v>6.077299999999999</v>
       </c>
     </row>
     <row r="385">
@@ -3159,7 +3159,7 @@
         <v>41572.0</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>6.0749</v>
+        <v>6.0748999999999995</v>
       </c>
     </row>
     <row r="386">
@@ -3167,7 +3167,7 @@
         <v>41575.0</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>6.0751</v>
+        <v>6.075100000000001</v>
       </c>
     </row>
     <row r="387">
@@ -3175,7 +3175,7 @@
         <v>41576.0</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>6.0819</v>
+        <v>6.081900000000001</v>
       </c>
     </row>
     <row r="388">
@@ -3199,7 +3199,7 @@
         <v>41579.0</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>6.0851</v>
+        <v>6.085100000000001</v>
       </c>
     </row>
     <row r="391">
@@ -3231,7 +3231,7 @@
         <v>41585.0</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>6.0855</v>
+        <v>6.085500000000001</v>
       </c>
     </row>
     <row r="395">
@@ -3247,7 +3247,7 @@
         <v>41589.0</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>6.0793</v>
+        <v>6.079299999999999</v>
       </c>
     </row>
     <row r="397">
@@ -3255,7 +3255,7 @@
         <v>41590.0</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>6.0765</v>
+        <v>6.076499999999999</v>
       </c>
     </row>
     <row r="398">
@@ -3271,7 +3271,7 @@
         <v>41592.0</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>6.0781</v>
+        <v>6.078099999999999</v>
       </c>
     </row>
     <row r="400">
@@ -3599,7 +3599,7 @@
         <v>41652.0</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>6.0279</v>
+        <v>6.027900000000001</v>
       </c>
     </row>
     <row r="441">
@@ -3655,7 +3655,7 @@
         <v>41661.0</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>6.0295</v>
+        <v>6.0295000000000005</v>
       </c>
     </row>
     <row r="448">
@@ -3679,7 +3679,7 @@
         <v>41666.0</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>6.0381</v>
+        <v>6.038099999999999</v>
       </c>
     </row>
     <row r="451">
@@ -3703,7 +3703,7 @@
         <v>41669.0</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>6.0351</v>
+        <v>6.035100000000001</v>
       </c>
     </row>
     <row r="454">
@@ -3751,7 +3751,7 @@
         <v>41677.0</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>6.0275</v>
+        <v>6.027500000000001</v>
       </c>
     </row>
     <row r="460">
@@ -3767,7 +3767,7 @@
         <v>41681.0</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>6.0359</v>
+        <v>6.035900000000001</v>
       </c>
     </row>
     <row r="462">
@@ -3775,7 +3775,7 @@
         <v>41682.0</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>6.0371</v>
+        <v>6.037100000000001</v>
       </c>
     </row>
     <row r="463">
@@ -3791,7 +3791,7 @@
         <v>41684.0</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>6.0353</v>
+        <v>6.035299999999999</v>
       </c>
     </row>
     <row r="465">
@@ -3799,7 +3799,7 @@
         <v>41687.0</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>6.0355</v>
+        <v>6.035500000000001</v>
       </c>
     </row>
     <row r="466">
@@ -3823,7 +3823,7 @@
         <v>41690.0</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>6.0717</v>
+        <v>6.071699999999999</v>
       </c>
     </row>
     <row r="469">
@@ -3831,7 +3831,7 @@
         <v>41691.0</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>6.0929</v>
+        <v>6.092899999999999</v>
       </c>
     </row>
     <row r="470">
@@ -3855,7 +3855,7 @@
         <v>41696.0</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>6.1193</v>
+        <v>6.119299999999999</v>
       </c>
     </row>
     <row r="473">
@@ -3863,7 +3863,7 @@
         <v>41697.0</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>6.1003</v>
+        <v>6.100300000000001</v>
       </c>
     </row>
     <row r="474">
@@ -3903,7 +3903,7 @@
         <v>41704.0</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>6.1005</v>
+        <v>6.100499999999999</v>
       </c>
     </row>
     <row r="479">
@@ -3983,7 +3983,7 @@
         <v>41718.0</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>6.2069</v>
+        <v>6.206899999999999</v>
       </c>
     </row>
     <row r="489">
@@ -3999,7 +3999,7 @@
         <v>41722.0</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>6.1811</v>
+        <v>6.181100000000001</v>
       </c>
     </row>
     <row r="491">
@@ -4031,7 +4031,7 @@
         <v>41726.0</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>6.2043</v>
+        <v>6.204300000000001</v>
       </c>
     </row>
     <row r="495">
@@ -4071,7 +4071,7 @@
         <v>41733.0</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>6.2131</v>
+        <v>6.213100000000001</v>
       </c>
     </row>
     <row r="500">
@@ -4087,7 +4087,7 @@
         <v>41737.0</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>6.1909</v>
+        <v>6.190899999999999</v>
       </c>
     </row>
     <row r="502">
@@ -4103,7 +4103,7 @@
         <v>41739.0</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>6.2103</v>
+        <v>6.210300000000001</v>
       </c>
     </row>
     <row r="504">
@@ -4111,7 +4111,7 @@
         <v>41740.0</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>6.2099</v>
+        <v>6.209900000000001</v>
       </c>
     </row>
     <row r="505">
@@ -4127,7 +4127,7 @@
         <v>41744.0</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>6.2249</v>
+        <v>6.224899999999999</v>
       </c>
     </row>
     <row r="507">
@@ -4143,7 +4143,7 @@
         <v>41746.0</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>6.2211</v>
+        <v>6.221100000000001</v>
       </c>
     </row>
     <row r="509">
@@ -4151,7 +4151,7 @@
         <v>41747.0</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>6.2231</v>
+        <v>6.2231000000000005</v>
       </c>
     </row>
     <row r="510">
@@ -4159,7 +4159,7 @@
         <v>41750.0</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>6.2287</v>
+        <v>6.228700000000001</v>
       </c>
     </row>
     <row r="511">
@@ -4199,7 +4199,7 @@
         <v>41757.0</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>6.2515</v>
+        <v>6.251500000000001</v>
       </c>
     </row>
     <row r="516">
@@ -4215,7 +4215,7 @@
         <v>41759.0</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>6.2525</v>
+        <v>6.2524999999999995</v>
       </c>
     </row>
     <row r="518">
@@ -4223,7 +4223,7 @@
         <v>41760.0</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>6.2525</v>
+        <v>6.2524999999999995</v>
       </c>
     </row>
     <row r="519">
@@ -4231,7 +4231,7 @@
         <v>41761.0</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>6.2557</v>
+        <v>6.255699999999999</v>
       </c>
     </row>
     <row r="520">
@@ -4255,7 +4255,7 @@
         <v>41766.0</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>6.2343</v>
+        <v>6.234300000000001</v>
       </c>
     </row>
     <row r="523">
@@ -4263,7 +4263,7 @@
         <v>41767.0</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>6.2315</v>
+        <v>6.2315000000000005</v>
       </c>
     </row>
     <row r="524">
@@ -4271,7 +4271,7 @@
         <v>41768.0</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>6.2355</v>
+        <v>6.235500000000001</v>
       </c>
     </row>
     <row r="525">
@@ -4311,7 +4311,7 @@
         <v>41775.0</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>6.2333</v>
+        <v>6.233299999999999</v>
       </c>
     </row>
     <row r="530">
@@ -4327,7 +4327,7 @@
         <v>41779.0</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>6.2369</v>
+        <v>6.2368999999999994</v>
       </c>
     </row>
     <row r="532">
@@ -4359,7 +4359,7 @@
         <v>41785.0</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>6.2367</v>
+        <v>6.236700000000001</v>
       </c>
     </row>
     <row r="536">
@@ -4391,7 +4391,7 @@
         <v>41789.0</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>6.2477</v>
+        <v>6.247699999999999</v>
       </c>
     </row>
     <row r="540">
@@ -4399,7 +4399,7 @@
         <v>41792.0</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>6.2559</v>
+        <v>6.2559000000000005</v>
       </c>
     </row>
     <row r="541">
@@ -4423,7 +4423,7 @@
         <v>41795.0</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>6.2559</v>
+        <v>6.2559000000000005</v>
       </c>
     </row>
     <row r="544">
@@ -4431,7 +4431,7 @@
         <v>41796.0</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>6.2451</v>
+        <v>6.245100000000001</v>
       </c>
     </row>
     <row r="545">
@@ -4463,7 +4463,7 @@
         <v>41802.0</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>6.2135</v>
+        <v>6.213500000000001</v>
       </c>
     </row>
     <row r="549">
@@ -4471,7 +4471,7 @@
         <v>41803.0</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>6.2129</v>
+        <v>6.212899999999999</v>
       </c>
     </row>
     <row r="550">
@@ -4479,7 +4479,7 @@
         <v>41806.0</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>6.2199</v>
+        <v>6.219900000000001</v>
       </c>
     </row>
     <row r="551">
@@ -4503,7 +4503,7 @@
         <v>41809.0</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>6.2295</v>
+        <v>6.229500000000001</v>
       </c>
     </row>
     <row r="554">
@@ -4511,7 +4511,7 @@
         <v>41810.0</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>6.2281</v>
+        <v>6.2280999999999995</v>
       </c>
     </row>
     <row r="555">
@@ -4527,7 +4527,7 @@
         <v>41814.0</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>6.2329</v>
+        <v>6.232899999999999</v>
       </c>
     </row>
     <row r="557">
@@ -4551,7 +4551,7 @@
         <v>41817.0</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>6.2151</v>
+        <v>6.2151000000000005</v>
       </c>
     </row>
     <row r="560">
@@ -4591,7 +4591,7 @@
         <v>41824.0</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>6.2067</v>
+        <v>6.2067000000000005</v>
       </c>
     </row>
     <row r="565">
@@ -4639,7 +4639,7 @@
         <v>41834.0</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>6.2093</v>
+        <v>6.209299999999999</v>
       </c>
     </row>
     <row r="571">
@@ -4671,7 +4671,7 @@
         <v>41838.0</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>6.2069</v>
+        <v>6.206899999999999</v>
       </c>
     </row>
     <row r="575">
@@ -4719,7 +4719,7 @@
         <v>41848.0</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>6.1813</v>
+        <v>6.181299999999999</v>
       </c>
     </row>
     <row r="581">
@@ -4727,7 +4727,7 @@
         <v>41849.0</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>6.1819</v>
+        <v>6.181900000000001</v>
       </c>
     </row>
     <row r="582">
@@ -4759,7 +4759,7 @@
         <v>41855.0</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>6.1745</v>
+        <v>6.174499999999999</v>
       </c>
     </row>
     <row r="586">
@@ -4815,7 +4815,7 @@
         <v>41864.0</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>6.1589</v>
+        <v>6.158899999999999</v>
       </c>
     </row>
     <row r="593">
@@ -4831,7 +4831,7 @@
         <v>41866.0</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>6.1479</v>
+        <v>6.147900000000001</v>
       </c>
     </row>
     <row r="595">
@@ -4839,7 +4839,7 @@
         <v>41869.0</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>6.1413</v>
+        <v>6.141299999999999</v>
       </c>
     </row>
     <row r="596">
@@ -4847,7 +4847,7 @@
         <v>41870.0</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>6.1445</v>
+        <v>6.144499999999999</v>
       </c>
     </row>
     <row r="597">
@@ -4863,7 +4863,7 @@
         <v>41872.0</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>6.1547</v>
+        <v>6.154700000000001</v>
       </c>
     </row>
     <row r="599">
@@ -4871,7 +4871,7 @@
         <v>41873.0</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>6.1559</v>
+        <v>6.155900000000001</v>
       </c>
     </row>
     <row r="600">
@@ -4879,7 +4879,7 @@
         <v>41876.0</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>6.1551</v>
+        <v>6.155100000000001</v>
       </c>
     </row>
     <row r="601">
@@ -4887,7 +4887,7 @@
         <v>41877.0</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>6.1507</v>
+        <v>6.1507000000000005</v>
       </c>
     </row>
     <row r="602">
@@ -4903,7 +4903,7 @@
         <v>41879.0</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>6.1505</v>
+        <v>6.150499999999999</v>
       </c>
     </row>
     <row r="604">
@@ -4951,7 +4951,7 @@
         <v>41887.0</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>6.1449</v>
+        <v>6.144899999999999</v>
       </c>
     </row>
     <row r="610">
@@ -4967,7 +4967,7 @@
         <v>41894.0</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>6.1407</v>
+        <v>6.140700000000001</v>
       </c>
     </row>
     <row r="612">
@@ -5071,7 +5071,7 @@
         <v>41913.0</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>6.1707</v>
+        <v>6.170700000000001</v>
       </c>
     </row>
     <row r="625">
@@ -5087,7 +5087,7 @@
         <v>41915.0</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>6.1665</v>
+        <v>6.166499999999999</v>
       </c>
     </row>
     <row r="627">
@@ -5119,7 +5119,7 @@
         <v>41921.0</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>6.1391</v>
+        <v>6.139100000000001</v>
       </c>
     </row>
     <row r="631">
@@ -5159,7 +5159,7 @@
         <v>41928.0</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>6.1431</v>
+        <v>6.1431000000000004</v>
       </c>
     </row>
     <row r="636">
@@ -5167,7 +5167,7 @@
         <v>41929.0</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>6.1415</v>
+        <v>6.141500000000001</v>
       </c>
     </row>
     <row r="637">
@@ -5191,7 +5191,7 @@
         <v>41934.0</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>6.1249</v>
+        <v>6.124899999999999</v>
       </c>
     </row>
     <row r="640">
@@ -5215,7 +5215,7 @@
         <v>41939.0</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>6.1201</v>
+        <v>6.120099999999999</v>
       </c>
     </row>
     <row r="643">
@@ -5239,7 +5239,7 @@
         <v>41942.0</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>6.1177</v>
+        <v>6.117699999999999</v>
       </c>
     </row>
     <row r="646">
@@ -5247,7 +5247,7 @@
         <v>41943.0</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>6.1281</v>
+        <v>6.128099999999999</v>
       </c>
     </row>
     <row r="647">
@@ -5287,7 +5287,7 @@
         <v>41950.0</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>6.1361</v>
+        <v>6.136099999999999</v>
       </c>
     </row>
     <row r="652">
@@ -5415,7 +5415,7 @@
         <v>41975.0</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>6.1569</v>
+        <v>6.156899999999999</v>
       </c>
     </row>
     <row r="668">
@@ -5423,7 +5423,7 @@
         <v>41976.0</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>6.1473</v>
+        <v>6.1472999999999995</v>
       </c>
     </row>
     <row r="669">
@@ -5503,7 +5503,7 @@
         <v>41990.0</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>6.2019</v>
+        <v>6.201900000000001</v>
       </c>
     </row>
     <row r="679">
@@ -5543,7 +5543,7 @@
         <v>41998.0</v>
       </c>
       <c r="B683" s="2" t="n">
-        <v>6.2249</v>
+        <v>6.224899999999999</v>
       </c>
     </row>
     <row r="684">
@@ -5583,7 +5583,7 @@
         <v>42009.0</v>
       </c>
       <c r="B688" s="2" t="n">
-        <v>6.2287</v>
+        <v>6.228700000000001</v>
       </c>
     </row>
     <row r="689">
@@ -5591,7 +5591,7 @@
         <v>42010.0</v>
       </c>
       <c r="B689" s="2" t="n">
-        <v>6.2275</v>
+        <v>6.227500000000001</v>
       </c>
     </row>
     <row r="690">
@@ -5599,7 +5599,7 @@
         <v>42011.0</v>
       </c>
       <c r="B690" s="2" t="n">
-        <v>6.2125</v>
+        <v>6.2124999999999995</v>
       </c>
     </row>
     <row r="691">
@@ -5743,7 +5743,7 @@
         <v>42038.0</v>
       </c>
       <c r="B708" s="2" t="n">
-        <v>6.2569</v>
+        <v>6.256899999999999</v>
       </c>
     </row>
     <row r="709">
@@ -5791,7 +5791,7 @@
         <v>42046.0</v>
       </c>
       <c r="B714" s="2" t="n">
-        <v>6.2465</v>
+        <v>6.246499999999999</v>
       </c>
     </row>
     <row r="715">
@@ -5807,7 +5807,7 @@
         <v>42048.0</v>
       </c>
       <c r="B716" s="2" t="n">
-        <v>6.2431</v>
+        <v>6.243100000000001</v>
       </c>
     </row>
     <row r="717">
@@ -5855,7 +5855,7 @@
         <v>42059.0</v>
       </c>
       <c r="B722" s="2" t="n">
-        <v>6.2631</v>
+        <v>6.2631000000000006</v>
       </c>
     </row>
     <row r="723">
@@ -5863,7 +5863,7 @@
         <v>42060.0</v>
       </c>
       <c r="B723" s="2" t="n">
-        <v>6.2711</v>
+        <v>6.271100000000001</v>
       </c>
     </row>
     <row r="724">
@@ -5879,7 +5879,7 @@
         <v>42062.0</v>
       </c>
       <c r="B725" s="2" t="n">
-        <v>6.2871</v>
+        <v>6.287100000000001</v>
       </c>
     </row>
     <row r="726">
@@ -5895,7 +5895,7 @@
         <v>42066.0</v>
       </c>
       <c r="B727" s="2" t="n">
-        <v>6.2867</v>
+        <v>6.286700000000001</v>
       </c>
     </row>
     <row r="728">
@@ -5903,7 +5903,7 @@
         <v>42067.0</v>
       </c>
       <c r="B728" s="2" t="n">
-        <v>6.2881</v>
+        <v>6.288099999999999</v>
       </c>
     </row>
     <row r="729">
@@ -5959,7 +5959,7 @@
         <v>42076.0</v>
       </c>
       <c r="B735" s="2" t="n">
-        <v>6.2855</v>
+        <v>6.285500000000001</v>
       </c>
     </row>
     <row r="736">
@@ -5967,7 +5967,7 @@
         <v>42079.0</v>
       </c>
       <c r="B736" s="2" t="n">
-        <v>6.2687</v>
+        <v>6.268700000000001</v>
       </c>
     </row>
     <row r="737">
@@ -6015,7 +6015,7 @@
         <v>42087.0</v>
       </c>
       <c r="B742" s="2" t="n">
-        <v>6.2103</v>
+        <v>6.210300000000001</v>
       </c>
     </row>
     <row r="743">
@@ -6023,7 +6023,7 @@
         <v>42088.0</v>
       </c>
       <c r="B743" s="2" t="n">
-        <v>6.2121</v>
+        <v>6.2120999999999995</v>
       </c>
     </row>
     <row r="744">
@@ -6031,7 +6031,7 @@
         <v>42089.0</v>
       </c>
       <c r="B744" s="2" t="n">
-        <v>6.2155</v>
+        <v>6.2155000000000005</v>
       </c>
     </row>
     <row r="745">
@@ -6039,7 +6039,7 @@
         <v>42090.0</v>
       </c>
       <c r="B745" s="2" t="n">
-        <v>6.2125</v>
+        <v>6.2124999999999995</v>
       </c>
     </row>
     <row r="746">
@@ -6063,7 +6063,7 @@
         <v>42095.0</v>
       </c>
       <c r="B748" s="2" t="n">
-        <v>6.2047</v>
+        <v>6.204700000000001</v>
       </c>
     </row>
     <row r="749">
@@ -6071,7 +6071,7 @@
         <v>42096.0</v>
       </c>
       <c r="B749" s="2" t="n">
-        <v>6.1997</v>
+        <v>6.199699999999999</v>
       </c>
     </row>
     <row r="750">
@@ -6087,7 +6087,7 @@
         <v>42101.0</v>
       </c>
       <c r="B751" s="2" t="n">
-        <v>6.2005</v>
+        <v>6.200499999999999</v>
       </c>
     </row>
     <row r="752">
@@ -6127,7 +6127,7 @@
         <v>42108.0</v>
       </c>
       <c r="B756" s="2" t="n">
-        <v>6.2141</v>
+        <v>6.214099999999999</v>
       </c>
     </row>
     <row r="757">
@@ -6183,7 +6183,7 @@
         <v>42117.0</v>
       </c>
       <c r="B763" s="2" t="n">
-        <v>6.1925</v>
+        <v>6.192499999999999</v>
       </c>
     </row>
     <row r="764">
@@ -6239,7 +6239,7 @@
         <v>42128.0</v>
       </c>
       <c r="B770" s="2" t="n">
-        <v>6.2111</v>
+        <v>6.211100000000001</v>
       </c>
     </row>
     <row r="771">
@@ -6247,7 +6247,7 @@
         <v>42129.0</v>
       </c>
       <c r="B771" s="2" t="n">
-        <v>6.2067</v>
+        <v>6.2067000000000005</v>
       </c>
     </row>
     <row r="772">
@@ -6279,7 +6279,7 @@
         <v>42135.0</v>
       </c>
       <c r="B775" s="2" t="n">
-        <v>6.2125</v>
+        <v>6.2124999999999995</v>
       </c>
     </row>
     <row r="776">
@@ -6287,7 +6287,7 @@
         <v>42136.0</v>
       </c>
       <c r="B776" s="2" t="n">
-        <v>6.2093</v>
+        <v>6.209299999999999</v>
       </c>
     </row>
     <row r="777">
@@ -6303,7 +6303,7 @@
         <v>42138.0</v>
       </c>
       <c r="B778" s="2" t="n">
-        <v>6.2049</v>
+        <v>6.204899999999999</v>
       </c>
     </row>
     <row r="779">
@@ -6335,7 +6335,7 @@
         <v>42144.0</v>
       </c>
       <c r="B782" s="2" t="n">
-        <v>6.2065</v>
+        <v>6.206499999999999</v>
       </c>
     </row>
     <row r="783">
@@ -6343,7 +6343,7 @@
         <v>42145.0</v>
       </c>
       <c r="B783" s="2" t="n">
-        <v>6.1973</v>
+        <v>6.197299999999999</v>
       </c>
     </row>
     <row r="784">
@@ -6375,7 +6375,7 @@
         <v>42151.0</v>
       </c>
       <c r="B787" s="2" t="n">
-        <v>6.2059</v>
+        <v>6.205900000000001</v>
       </c>
     </row>
     <row r="788">
@@ -6383,7 +6383,7 @@
         <v>42152.0</v>
       </c>
       <c r="B788" s="2" t="n">
-        <v>6.2043</v>
+        <v>6.204300000000001</v>
       </c>
     </row>
     <row r="789">
@@ -6391,7 +6391,7 @@
         <v>42156.0</v>
       </c>
       <c r="B789" s="2" t="n">
-        <v>6.2051</v>
+        <v>6.205100000000001</v>
       </c>
     </row>
     <row r="790">
@@ -6399,7 +6399,7 @@
         <v>42157.0</v>
       </c>
       <c r="B790" s="2" t="n">
-        <v>6.2009</v>
+        <v>6.200899999999999</v>
       </c>
     </row>
     <row r="791">
@@ -6503,7 +6503,7 @@
         <v>42174.0</v>
       </c>
       <c r="B803" s="2" t="n">
-        <v>6.2075</v>
+        <v>6.2075000000000005</v>
       </c>
     </row>
     <row r="804">
@@ -6567,7 +6567,7 @@
         <v>42186.0</v>
       </c>
       <c r="B811" s="2" t="n">
-        <v>6.2059</v>
+        <v>6.205900000000001</v>
       </c>
     </row>
     <row r="812">
@@ -6599,7 +6599,7 @@
         <v>42192.0</v>
       </c>
       <c r="B815" s="2" t="n">
-        <v>6.2227</v>
+        <v>6.222700000000001</v>
       </c>
     </row>
     <row r="816">
@@ -6679,7 +6679,7 @@
         <v>42206.0</v>
       </c>
       <c r="B825" s="2" t="n">
-        <v>6.2093</v>
+        <v>6.209299999999999</v>
       </c>
     </row>
     <row r="826">
@@ -6687,7 +6687,7 @@
         <v>42207.0</v>
       </c>
       <c r="B826" s="2" t="n">
-        <v>6.2125</v>
+        <v>6.2124999999999995</v>
       </c>
     </row>
     <row r="827">
@@ -6695,7 +6695,7 @@
         <v>42208.0</v>
       </c>
       <c r="B827" s="2" t="n">
-        <v>6.2141</v>
+        <v>6.214099999999999</v>
       </c>
     </row>
     <row r="828">
@@ -6711,7 +6711,7 @@
         <v>42212.0</v>
       </c>
       <c r="B829" s="2" t="n">
-        <v>6.2207</v>
+        <v>6.220700000000001</v>
       </c>
     </row>
     <row r="830">
@@ -6751,7 +6751,7 @@
         <v>42219.0</v>
       </c>
       <c r="B834" s="2" t="n">
-        <v>6.2195</v>
+        <v>6.219500000000001</v>
       </c>
     </row>
     <row r="835">
@@ -6775,7 +6775,7 @@
         <v>42222.0</v>
       </c>
       <c r="B837" s="2" t="n">
-        <v>6.2173</v>
+        <v>6.217299999999999</v>
       </c>
     </row>
     <row r="838">
@@ -6823,7 +6823,7 @@
         <v>42230.0</v>
       </c>
       <c r="B843" s="2" t="n">
-        <v>6.4455</v>
+        <v>6.445500000000001</v>
       </c>
     </row>
     <row r="844">
@@ -6839,7 +6839,7 @@
         <v>42234.0</v>
       </c>
       <c r="B845" s="2" t="n">
-        <v>6.4389</v>
+        <v>6.438899999999999</v>
       </c>
     </row>
     <row r="846">
@@ -6855,7 +6855,7 @@
         <v>42236.0</v>
       </c>
       <c r="B847" s="2" t="n">
-        <v>6.4411</v>
+        <v>6.4411000000000005</v>
       </c>
     </row>
     <row r="848">
@@ -6863,7 +6863,7 @@
         <v>42237.0</v>
       </c>
       <c r="B848" s="2" t="n">
-        <v>6.4537</v>
+        <v>6.4536999999999995</v>
       </c>
     </row>
     <row r="849">
@@ -6871,7 +6871,7 @@
         <v>42240.0</v>
       </c>
       <c r="B849" s="2" t="n">
-        <v>6.4971</v>
+        <v>6.4971000000000005</v>
       </c>
     </row>
     <row r="850">
@@ -6895,7 +6895,7 @@
         <v>42243.0</v>
       </c>
       <c r="B852" s="2" t="n">
-        <v>6.4797</v>
+        <v>6.479699999999999</v>
       </c>
     </row>
     <row r="853">
@@ -6919,7 +6919,7 @@
         <v>42248.0</v>
       </c>
       <c r="B855" s="2" t="n">
-        <v>6.4177</v>
+        <v>6.417699999999999</v>
       </c>
     </row>
     <row r="856">
@@ -6935,7 +6935,7 @@
         <v>42250.0</v>
       </c>
       <c r="B857" s="2" t="n">
-        <v>6.4491</v>
+        <v>6.4491000000000005</v>
       </c>
     </row>
     <row r="858">
@@ -6951,7 +6951,7 @@
         <v>42254.0</v>
       </c>
       <c r="B859" s="2" t="n">
-        <v>6.4789</v>
+        <v>6.478899999999999</v>
       </c>
     </row>
     <row r="860">
@@ -6959,7 +6959,7 @@
         <v>42255.0</v>
       </c>
       <c r="B860" s="2" t="n">
-        <v>6.4549</v>
+        <v>6.454899999999999</v>
       </c>
     </row>
     <row r="861">
@@ -7015,7 +7015,7 @@
         <v>42264.0</v>
       </c>
       <c r="B867" s="2" t="n">
-        <v>6.4011</v>
+        <v>6.4011000000000005</v>
       </c>
     </row>
     <row r="868">
@@ -7039,7 +7039,7 @@
         <v>42269.0</v>
       </c>
       <c r="B870" s="2" t="n">
-        <v>6.4159</v>
+        <v>6.415900000000001</v>
       </c>
     </row>
     <row r="871">
@@ -7071,7 +7071,7 @@
         <v>42275.0</v>
       </c>
       <c r="B874" s="2" t="n">
-        <v>6.3689</v>
+        <v>6.368899999999999</v>
       </c>
     </row>
     <row r="875">
@@ -7087,7 +7087,7 @@
         <v>42277.0</v>
       </c>
       <c r="B876" s="2" t="n">
-        <v>6.3621</v>
+        <v>6.362099999999999</v>
       </c>
     </row>
     <row r="877">
@@ -7095,7 +7095,7 @@
         <v>42278.0</v>
       </c>
       <c r="B877" s="2" t="n">
-        <v>6.3679</v>
+        <v>6.367900000000001</v>
       </c>
     </row>
     <row r="878">
@@ -7119,7 +7119,7 @@
         <v>42283.0</v>
       </c>
       <c r="B880" s="2" t="n">
-        <v>6.3501</v>
+        <v>6.350099999999999</v>
       </c>
     </row>
     <row r="881">
@@ -7135,7 +7135,7 @@
         <v>42285.0</v>
       </c>
       <c r="B882" s="2" t="n">
-        <v>6.3417</v>
+        <v>6.3416999999999994</v>
       </c>
     </row>
     <row r="883">
@@ -7199,7 +7199,7 @@
         <v>42297.0</v>
       </c>
       <c r="B890" s="2" t="n">
-        <v>6.3711</v>
+        <v>6.371100000000001</v>
       </c>
     </row>
     <row r="891">
@@ -7215,7 +7215,7 @@
         <v>42299.0</v>
       </c>
       <c r="B892" s="2" t="n">
-        <v>6.3913</v>
+        <v>6.391299999999999</v>
       </c>
     </row>
     <row r="893">
@@ -7231,7 +7231,7 @@
         <v>42303.0</v>
       </c>
       <c r="B894" s="2" t="n">
-        <v>6.3895</v>
+        <v>6.389500000000001</v>
       </c>
     </row>
     <row r="895">
@@ -7247,7 +7247,7 @@
         <v>42305.0</v>
       </c>
       <c r="B896" s="2" t="n">
-        <v>6.3941</v>
+        <v>6.394099999999999</v>
       </c>
     </row>
     <row r="897">
@@ -7271,7 +7271,7 @@
         <v>42310.0</v>
       </c>
       <c r="B899" s="2" t="n">
-        <v>6.3461</v>
+        <v>6.346099999999999</v>
       </c>
     </row>
     <row r="900">
@@ -7279,7 +7279,7 @@
         <v>42311.0</v>
       </c>
       <c r="B900" s="2" t="n">
-        <v>6.3447</v>
+        <v>6.3447000000000005</v>
       </c>
     </row>
     <row r="901">
@@ -7303,7 +7303,7 @@
         <v>42314.0</v>
       </c>
       <c r="B903" s="2" t="n">
-        <v>6.3917</v>
+        <v>6.391699999999999</v>
       </c>
     </row>
     <row r="904">
@@ -7327,7 +7327,7 @@
         <v>42319.0</v>
       </c>
       <c r="B906" s="2" t="n">
-        <v>6.3905</v>
+        <v>6.390499999999999</v>
       </c>
     </row>
     <row r="907">
@@ -7463,7 +7463,7 @@
         <v>42342.0</v>
       </c>
       <c r="B923" s="2" t="n">
-        <v>6.4447</v>
+        <v>6.444700000000001</v>
       </c>
     </row>
     <row r="924">
@@ -7495,7 +7495,7 @@
         <v>42348.0</v>
       </c>
       <c r="B927" s="2" t="n">
-        <v>6.4963</v>
+        <v>6.496300000000001</v>
       </c>
     </row>
     <row r="928">
@@ -7503,7 +7503,7 @@
         <v>42349.0</v>
       </c>
       <c r="B928" s="2" t="n">
-        <v>6.5375</v>
+        <v>6.5375000000000005</v>
       </c>
     </row>
     <row r="929">
@@ -7511,7 +7511,7 @@
         <v>42352.0</v>
       </c>
       <c r="B929" s="2" t="n">
-        <v>6.5553</v>
+        <v>6.555299999999999</v>
       </c>
     </row>
     <row r="930">
@@ -7551,7 +7551,7 @@
         <v>42359.0</v>
       </c>
       <c r="B934" s="2" t="n">
-        <v>6.5519</v>
+        <v>6.551900000000001</v>
       </c>
     </row>
     <row r="935">
@@ -7575,7 +7575,7 @@
         <v>42362.0</v>
       </c>
       <c r="B937" s="2" t="n">
-        <v>6.5437</v>
+        <v>6.543699999999999</v>
       </c>
     </row>
     <row r="938">
@@ -7583,7 +7583,7 @@
         <v>42363.0</v>
       </c>
       <c r="B938" s="2" t="n">
-        <v>6.5423</v>
+        <v>6.542300000000001</v>
       </c>
     </row>
     <row r="939">
@@ -7591,7 +7591,7 @@
         <v>42366.0</v>
       </c>
       <c r="B939" s="2" t="n">
-        <v>6.5605</v>
+        <v>6.560499999999999</v>
       </c>
     </row>
     <row r="940">
@@ -7599,7 +7599,7 @@
         <v>42367.0</v>
       </c>
       <c r="B940" s="2" t="n">
-        <v>6.5759</v>
+        <v>6.575900000000001</v>
       </c>
     </row>
     <row r="941">
@@ -7615,7 +7615,7 @@
         <v>42369.0</v>
       </c>
       <c r="B942" s="2" t="n">
-        <v>6.5687</v>
+        <v>6.568700000000001</v>
       </c>
     </row>
     <row r="943">
@@ -7631,7 +7631,7 @@
         <v>42374.0</v>
       </c>
       <c r="B944" s="2" t="n">
-        <v>6.6449</v>
+        <v>6.644899999999999</v>
       </c>
     </row>
     <row r="945">
@@ -7639,7 +7639,7 @@
         <v>42375.0</v>
       </c>
       <c r="B945" s="2" t="n">
-        <v>6.6959</v>
+        <v>6.695900000000001</v>
       </c>
     </row>
     <row r="946">
@@ -7647,7 +7647,7 @@
         <v>42376.0</v>
       </c>
       <c r="B946" s="2" t="n">
-        <v>6.6829</v>
+        <v>6.682899999999999</v>
       </c>
     </row>
     <row r="947">
@@ -7679,7 +7679,7 @@
         <v>42382.0</v>
       </c>
       <c r="B950" s="2" t="n">
-        <v>6.5673</v>
+        <v>6.5672999999999995</v>
       </c>
     </row>
     <row r="951">
@@ -7687,7 +7687,7 @@
         <v>42383.0</v>
       </c>
       <c r="B951" s="2" t="n">
-        <v>6.6013</v>
+        <v>6.601299999999999</v>
       </c>
     </row>
     <row r="952">
@@ -7703,7 +7703,7 @@
         <v>42387.0</v>
       </c>
       <c r="B953" s="2" t="n">
-        <v>6.5843</v>
+        <v>6.584300000000001</v>
       </c>
     </row>
     <row r="954">
@@ -7711,7 +7711,7 @@
         <v>42388.0</v>
       </c>
       <c r="B954" s="2" t="n">
-        <v>6.5911</v>
+        <v>6.591100000000001</v>
       </c>
     </row>
     <row r="955">
@@ -7767,7 +7767,7 @@
         <v>42397.0</v>
       </c>
       <c r="B961" s="2" t="n">
-        <v>6.6151</v>
+        <v>6.615100000000001</v>
       </c>
     </row>
     <row r="962">
@@ -7831,7 +7831,7 @@
         <v>42409.0</v>
       </c>
       <c r="B969" s="2" t="n">
-        <v>6.5655</v>
+        <v>6.565500000000001</v>
       </c>
     </row>
     <row r="970">
@@ -7847,7 +7847,7 @@
         <v>42411.0</v>
       </c>
       <c r="B971" s="2" t="n">
-        <v>6.5295</v>
+        <v>6.5295000000000005</v>
       </c>
     </row>
     <row r="972">
@@ -7887,7 +7887,7 @@
         <v>42418.0</v>
       </c>
       <c r="B976" s="2" t="n">
-        <v>6.5229</v>
+        <v>6.522899999999999</v>
       </c>
     </row>
     <row r="977">
@@ -7895,7 +7895,7 @@
         <v>42419.0</v>
       </c>
       <c r="B977" s="2" t="n">
-        <v>6.5265</v>
+        <v>6.5264999999999995</v>
       </c>
     </row>
     <row r="978">
@@ -7927,7 +7927,7 @@
         <v>42425.0</v>
       </c>
       <c r="B981" s="2" t="n">
-        <v>6.5349</v>
+        <v>6.5348999999999995</v>
       </c>
     </row>
     <row r="982">
@@ -7951,7 +7951,7 @@
         <v>42430.0</v>
       </c>
       <c r="B984" s="2" t="n">
-        <v>6.5495</v>
+        <v>6.549500000000001</v>
       </c>
     </row>
     <row r="985">
@@ -7975,7 +7975,7 @@
         <v>42433.0</v>
       </c>
       <c r="B987" s="2" t="n">
-        <v>6.5023</v>
+        <v>6.502300000000001</v>
       </c>
     </row>
     <row r="988">
@@ -8071,7 +8071,7 @@
         <v>42451.0</v>
       </c>
       <c r="B999" s="2" t="n">
-        <v>6.4949</v>
+        <v>6.4948999999999995</v>
       </c>
     </row>
     <row r="1000">
@@ -8103,7 +8103,7 @@
         <v>42457.0</v>
       </c>
       <c r="B1003" s="2" t="n">
-        <v>6.5183</v>
+        <v>6.518300000000001</v>
       </c>
     </row>
     <row r="1004">
@@ -8127,7 +8127,7 @@
         <v>42460.0</v>
       </c>
       <c r="B1006" s="2" t="n">
-        <v>6.4643</v>
+        <v>6.464300000000001</v>
       </c>
     </row>
     <row r="1007">
@@ -8159,7 +8159,7 @@
         <v>42466.0</v>
       </c>
       <c r="B1010" s="2" t="n">
-        <v>6.4833</v>
+        <v>6.483299999999999</v>
       </c>
     </row>
     <row r="1011">
@@ -8183,7 +8183,7 @@
         <v>42471.0</v>
       </c>
       <c r="B1013" s="2" t="n">
-        <v>6.4691</v>
+        <v>6.469100000000001</v>
       </c>
     </row>
     <row r="1014">
@@ -8191,7 +8191,7 @@
         <v>42472.0</v>
       </c>
       <c r="B1014" s="2" t="n">
-        <v>6.4737</v>
+        <v>6.473699999999999</v>
       </c>
     </row>
     <row r="1015">
@@ -8215,7 +8215,7 @@
         <v>42475.0</v>
       </c>
       <c r="B1017" s="2" t="n">
-        <v>6.4861</v>
+        <v>6.4860999999999995</v>
       </c>
     </row>
     <row r="1018">
@@ -8223,7 +8223,7 @@
         <v>42478.0</v>
       </c>
       <c r="B1018" s="2" t="n">
-        <v>6.4833</v>
+        <v>6.483299999999999</v>
       </c>
     </row>
     <row r="1019">
@@ -8279,7 +8279,7 @@
         <v>42487.0</v>
       </c>
       <c r="B1025" s="2" t="n">
-        <v>6.5051</v>
+        <v>6.5051000000000005</v>
       </c>
     </row>
     <row r="1026">
@@ -8295,7 +8295,7 @@
         <v>42489.0</v>
       </c>
       <c r="B1027" s="2" t="n">
-        <v>6.4861</v>
+        <v>6.4860999999999995</v>
       </c>
     </row>
     <row r="1028">
@@ -8303,7 +8303,7 @@
         <v>42493.0</v>
       </c>
       <c r="B1028" s="2" t="n">
-        <v>6.5041</v>
+        <v>6.504099999999999</v>
       </c>
     </row>
     <row r="1029">
@@ -8375,7 +8375,7 @@
         <v>42506.0</v>
       </c>
       <c r="B1037" s="2" t="n">
-        <v>6.5491</v>
+        <v>6.549100000000001</v>
       </c>
     </row>
     <row r="1038">
@@ -8399,7 +8399,7 @@
         <v>42509.0</v>
       </c>
       <c r="B1040" s="2" t="n">
-        <v>6.5621</v>
+        <v>6.562099999999999</v>
       </c>
     </row>
     <row r="1041">
@@ -8415,7 +8415,7 @@
         <v>42513.0</v>
       </c>
       <c r="B1042" s="2" t="n">
-        <v>6.5617</v>
+        <v>6.561699999999999</v>
       </c>
     </row>
     <row r="1043">
@@ -8471,7 +8471,7 @@
         <v>42522.0</v>
       </c>
       <c r="B1049" s="2" t="n">
-        <v>6.5885</v>
+        <v>6.588499999999999</v>
       </c>
     </row>
     <row r="1050">
@@ -8519,7 +8519,7 @@
         <v>42530.0</v>
       </c>
       <c r="B1055" s="2" t="n">
-        <v>6.5843</v>
+        <v>6.584300000000001</v>
       </c>
     </row>
     <row r="1056">
@@ -8615,7 +8615,7 @@
         <v>42548.0</v>
       </c>
       <c r="B1067" s="2" t="n">
-        <v>6.6813</v>
+        <v>6.681299999999999</v>
       </c>
     </row>
     <row r="1068">
@@ -8711,7 +8711,7 @@
         <v>42564.0</v>
       </c>
       <c r="B1079" s="2" t="n">
-        <v>6.6879</v>
+        <v>6.687900000000001</v>
       </c>
     </row>
     <row r="1080">
@@ -8719,7 +8719,7 @@
         <v>42565.0</v>
       </c>
       <c r="B1080" s="2" t="n">
-        <v>6.6917</v>
+        <v>6.691699999999999</v>
       </c>
     </row>
     <row r="1081">
@@ -8743,7 +8743,7 @@
         <v>42570.0</v>
       </c>
       <c r="B1083" s="2" t="n">
-        <v>6.7107</v>
+        <v>6.710700000000001</v>
       </c>
     </row>
     <row r="1084">
@@ -8783,7 +8783,7 @@
         <v>42577.0</v>
       </c>
       <c r="B1088" s="2" t="n">
-        <v>6.6801</v>
+        <v>6.6800999999999995</v>
       </c>
     </row>
     <row r="1089">
@@ -8791,7 +8791,7 @@
         <v>42578.0</v>
       </c>
       <c r="B1089" s="2" t="n">
-        <v>6.6711</v>
+        <v>6.671100000000001</v>
       </c>
     </row>
     <row r="1090">
@@ -8831,7 +8831,7 @@
         <v>42585.0</v>
       </c>
       <c r="B1094" s="2" t="n">
-        <v>6.6427</v>
+        <v>6.6427000000000005</v>
       </c>
     </row>
     <row r="1095">
@@ -9015,7 +9015,7 @@
         <v>42618.0</v>
       </c>
       <c r="B1117" s="2" t="n">
-        <v>6.6921</v>
+        <v>6.692099999999999</v>
       </c>
     </row>
     <row r="1118">
@@ -9079,7 +9079,7 @@
         <v>42628.0</v>
       </c>
       <c r="B1125" s="2" t="n">
-        <v>6.6497</v>
+        <v>6.649699999999999</v>
       </c>
     </row>
     <row r="1126">
@@ -9119,7 +9119,7 @@
         <v>42635.0</v>
       </c>
       <c r="B1130" s="2" t="n">
-        <v>6.6809</v>
+        <v>6.680899999999999</v>
       </c>
     </row>
     <row r="1131">
@@ -9247,7 +9247,7 @@
         <v>42657.0</v>
       </c>
       <c r="B1146" s="2" t="n">
-        <v>6.7385</v>
+        <v>6.738499999999999</v>
       </c>
     </row>
     <row r="1147">
@@ -9271,7 +9271,7 @@
         <v>42662.0</v>
       </c>
       <c r="B1149" s="2" t="n">
-        <v>6.7413</v>
+        <v>6.741299999999999</v>
       </c>
     </row>
     <row r="1150">
@@ -9311,7 +9311,7 @@
         <v>42669.0</v>
       </c>
       <c r="B1154" s="2" t="n">
-        <v>6.7855</v>
+        <v>6.785500000000001</v>
       </c>
     </row>
     <row r="1155">
@@ -9511,7 +9511,7 @@
         <v>42704.0</v>
       </c>
       <c r="B1179" s="2" t="n">
-        <v>6.9161</v>
+        <v>6.916099999999999</v>
       </c>
     </row>
     <row r="1180">
@@ -9535,7 +9535,7 @@
         <v>42709.0</v>
       </c>
       <c r="B1182" s="2" t="n">
-        <v>6.8621</v>
+        <v>6.862099999999999</v>
       </c>
     </row>
     <row r="1183">
@@ -9559,7 +9559,7 @@
         <v>42712.0</v>
       </c>
       <c r="B1185" s="2" t="n">
-        <v>6.9127</v>
+        <v>6.912700000000001</v>
       </c>
     </row>
     <row r="1186">
@@ -9575,7 +9575,7 @@
         <v>42716.0</v>
       </c>
       <c r="B1187" s="2" t="n">
-        <v>6.9241</v>
+        <v>6.924099999999999</v>
       </c>
     </row>
     <row r="1188">
@@ -9687,7 +9687,7 @@
         <v>42734.0</v>
       </c>
       <c r="B1201" s="2" t="n">
-        <v>6.9695</v>
+        <v>6.969500000000001</v>
       </c>
     </row>
     <row r="1202">
@@ -9799,7 +9799,7 @@
         <v>42754.0</v>
       </c>
       <c r="B1215" s="2" t="n">
-        <v>6.8465</v>
+        <v>6.846499999999999</v>
       </c>
     </row>
     <row r="1216">
@@ -10247,7 +10247,7 @@
         <v>42832.0</v>
       </c>
       <c r="B1271" s="2" t="n">
-        <v>6.8865</v>
+        <v>6.886499999999999</v>
       </c>
     </row>
     <row r="1272">
@@ -10919,7 +10919,7 @@
         <v>42950.0</v>
       </c>
       <c r="B1355" s="2" t="n">
-        <v>6.7295</v>
+        <v>6.729500000000001</v>
       </c>
     </row>
     <row r="1356">
@@ -10959,7 +10959,7 @@
         <v>42957.0</v>
       </c>
       <c r="B1360" s="2" t="n">
-        <v>6.6665</v>
+        <v>6.666499999999999</v>
       </c>
     </row>
     <row r="1361">
@@ -10967,7 +10967,7 @@
         <v>42958.0</v>
       </c>
       <c r="B1361" s="2" t="n">
-        <v>6.6745</v>
+        <v>6.674499999999999</v>
       </c>
     </row>
     <row r="1362">
@@ -10975,7 +10975,7 @@
         <v>42961.0</v>
       </c>
       <c r="B1362" s="2" t="n">
-        <v>6.6903</v>
+        <v>6.690300000000001</v>
       </c>
     </row>
     <row r="1363">
@@ -10999,7 +10999,7 @@
         <v>42964.0</v>
       </c>
       <c r="B1365" s="2" t="n">
-        <v>6.6863</v>
+        <v>6.686300000000001</v>
       </c>
     </row>
     <row r="1366">
@@ -11015,7 +11015,7 @@
         <v>42968.0</v>
       </c>
       <c r="B1367" s="2" t="n">
-        <v>6.6711</v>
+        <v>6.671100000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -11047,7 +11047,7 @@
         <v>42972.0</v>
       </c>
       <c r="B1371" s="2" t="n">
-        <v>6.6433</v>
+        <v>6.643299999999999</v>
       </c>
     </row>
     <row r="1372">
@@ -11055,7 +11055,7 @@
         <v>42975.0</v>
       </c>
       <c r="B1372" s="2" t="n">
-        <v>6.6183</v>
+        <v>6.6183000000000005</v>
       </c>
     </row>
     <row r="1373">
@@ -11071,7 +11071,7 @@
         <v>42977.0</v>
       </c>
       <c r="B1374" s="2" t="n">
-        <v>6.5989</v>
+        <v>6.5988999999999995</v>
       </c>
     </row>
     <row r="1375">
@@ -11079,7 +11079,7 @@
         <v>42978.0</v>
       </c>
       <c r="B1375" s="2" t="n">
-        <v>6.5957</v>
+        <v>6.595699999999999</v>
       </c>
     </row>
     <row r="1376">
@@ -11087,7 +11087,7 @@
         <v>42979.0</v>
       </c>
       <c r="B1376" s="2" t="n">
-        <v>6.5607</v>
+        <v>6.560700000000001</v>
       </c>
     </row>
     <row r="1377">
@@ -11103,7 +11103,7 @@
         <v>42983.0</v>
       </c>
       <c r="B1378" s="2" t="n">
-        <v>6.5401</v>
+        <v>6.540099999999999</v>
       </c>
     </row>
     <row r="1379">
@@ -11143,7 +11143,7 @@
         <v>42990.0</v>
       </c>
       <c r="B1383" s="2" t="n">
-        <v>6.5369</v>
+        <v>6.536899999999999</v>
       </c>
     </row>
     <row r="1384">
@@ -11151,7 +11151,7 @@
         <v>42991.0</v>
       </c>
       <c r="B1384" s="2" t="n">
-        <v>6.5477</v>
+        <v>6.547699999999999</v>
       </c>
     </row>
     <row r="1385">
@@ -11183,7 +11183,7 @@
         <v>42997.0</v>
       </c>
       <c r="B1388" s="2" t="n">
-        <v>6.5847</v>
+        <v>6.584700000000001</v>
       </c>
     </row>
     <row r="1389">
@@ -11199,7 +11199,7 @@
         <v>42999.0</v>
       </c>
       <c r="B1390" s="2" t="n">
-        <v>6.5681</v>
+        <v>6.568099999999999</v>
       </c>
     </row>
     <row r="1391">
@@ -11207,7 +11207,7 @@
         <v>43000.0</v>
       </c>
       <c r="B1391" s="2" t="n">
-        <v>6.5805</v>
+        <v>6.580499999999999</v>
       </c>
     </row>
     <row r="1392">
@@ -11247,7 +11247,7 @@
         <v>43007.0</v>
       </c>
       <c r="B1396" s="2" t="n">
-        <v>6.6477</v>
+        <v>6.6476999999999995</v>
       </c>
     </row>
     <row r="1397">
@@ -11271,7 +11271,7 @@
         <v>43012.0</v>
       </c>
       <c r="B1399" s="2" t="n">
-        <v>6.6477</v>
+        <v>6.6476999999999995</v>
       </c>
     </row>
     <row r="1400">
@@ -11303,7 +11303,7 @@
         <v>43018.0</v>
       </c>
       <c r="B1403" s="2" t="n">
-        <v>6.5669</v>
+        <v>6.5668999999999995</v>
       </c>
     </row>
     <row r="1404">
@@ -11311,7 +11311,7 @@
         <v>43019.0</v>
       </c>
       <c r="B1404" s="2" t="n">
-        <v>6.5735</v>
+        <v>6.573500000000001</v>
       </c>
     </row>
     <row r="1405">
@@ -11319,7 +11319,7 @@
         <v>43020.0</v>
       </c>
       <c r="B1405" s="2" t="n">
-        <v>6.5783</v>
+        <v>6.5783000000000005</v>
       </c>
     </row>
     <row r="1406">
@@ -11327,7 +11327,7 @@
         <v>43021.0</v>
       </c>
       <c r="B1406" s="2" t="n">
-        <v>6.5677</v>
+        <v>6.567699999999999</v>
       </c>
     </row>
     <row r="1407">
@@ -11335,7 +11335,7 @@
         <v>43024.0</v>
       </c>
       <c r="B1407" s="2" t="n">
-        <v>6.5833</v>
+        <v>6.5832999999999995</v>
       </c>
     </row>
     <row r="1408">
@@ -11383,7 +11383,7 @@
         <v>43032.0</v>
       </c>
       <c r="B1413" s="2" t="n">
-        <v>6.6429</v>
+        <v>6.642899999999999</v>
       </c>
     </row>
     <row r="1414">
@@ -11399,7 +11399,7 @@
         <v>43034.0</v>
       </c>
       <c r="B1415" s="2" t="n">
-        <v>6.6539</v>
+        <v>6.653900000000001</v>
       </c>
     </row>
     <row r="1416">
@@ -11407,7 +11407,7 @@
         <v>43035.0</v>
       </c>
       <c r="B1416" s="2" t="n">
-        <v>6.6477</v>
+        <v>6.6476999999999995</v>
       </c>
     </row>
     <row r="1417">
@@ -11423,7 +11423,7 @@
         <v>43039.0</v>
       </c>
       <c r="B1418" s="2" t="n">
-        <v>6.6327</v>
+        <v>6.632700000000001</v>
       </c>
     </row>
     <row r="1419">
@@ -11431,7 +11431,7 @@
         <v>43040.0</v>
       </c>
       <c r="B1419" s="2" t="n">
-        <v>6.6089</v>
+        <v>6.608899999999999</v>
       </c>
     </row>
     <row r="1420">
@@ -11455,7 +11455,7 @@
         <v>43045.0</v>
       </c>
       <c r="B1422" s="2" t="n">
-        <v>6.6241</v>
+        <v>6.624099999999999</v>
       </c>
     </row>
     <row r="1423">
@@ -11471,7 +11471,7 @@
         <v>43047.0</v>
       </c>
       <c r="B1424" s="2" t="n">
-        <v>6.6319</v>
+        <v>6.631900000000001</v>
       </c>
     </row>
     <row r="1425">
@@ -11503,7 +11503,7 @@
         <v>43053.0</v>
       </c>
       <c r="B1428" s="2" t="n">
-        <v>6.6365</v>
+        <v>6.636499999999999</v>
       </c>
     </row>
     <row r="1429">
@@ -11599,7 +11599,7 @@
         <v>43069.0</v>
       </c>
       <c r="B1440" s="2" t="n">
-        <v>6.6117</v>
+        <v>6.611699999999999</v>
       </c>
     </row>
     <row r="1441">
@@ -11615,7 +11615,7 @@
         <v>43073.0</v>
       </c>
       <c r="B1442" s="2" t="n">
-        <v>6.6157</v>
+        <v>6.6156999999999995</v>
       </c>
     </row>
     <row r="1443">
@@ -11631,7 +11631,7 @@
         <v>43075.0</v>
       </c>
       <c r="B1444" s="2" t="n">
-        <v>6.6179</v>
+        <v>6.617900000000001</v>
       </c>
     </row>
     <row r="1445">
@@ -11719,7 +11719,7 @@
         <v>43090.0</v>
       </c>
       <c r="B1455" s="2" t="n">
-        <v>6.5655</v>
+        <v>6.565500000000001</v>
       </c>
     </row>
     <row r="1456">
@@ -11735,7 +11735,7 @@
         <v>43094.0</v>
       </c>
       <c r="B1457" s="2" t="n">
-        <v>6.5519</v>
+        <v>6.551900000000001</v>
       </c>
     </row>
     <row r="1458">
@@ -11743,7 +11743,7 @@
         <v>43095.0</v>
       </c>
       <c r="B1458" s="2" t="n">
-        <v>6.5415</v>
+        <v>6.541500000000001</v>
       </c>
     </row>
     <row r="1459">
@@ -11751,7 +11751,7 @@
         <v>43096.0</v>
       </c>
       <c r="B1459" s="2" t="n">
-        <v>6.5543</v>
+        <v>6.5543000000000005</v>
       </c>
     </row>
     <row r="1460">
@@ -11759,7 +11759,7 @@
         <v>43097.0</v>
       </c>
       <c r="B1460" s="2" t="n">
-        <v>6.5309</v>
+        <v>6.530899999999999</v>
       </c>
     </row>
     <row r="1461">
@@ -11799,7 +11799,7 @@
         <v>43104.0</v>
       </c>
       <c r="B1465" s="2" t="n">
-        <v>6.4917</v>
+        <v>6.491699999999999</v>
       </c>
     </row>
     <row r="1466">
@@ -11807,7 +11807,7 @@
         <v>43105.0</v>
       </c>
       <c r="B1466" s="2" t="n">
-        <v>6.4791</v>
+        <v>6.479100000000001</v>
       </c>
     </row>
     <row r="1467">
@@ -11823,7 +11823,7 @@
         <v>43109.0</v>
       </c>
       <c r="B1468" s="2" t="n">
-        <v>6.5363</v>
+        <v>6.536300000000001</v>
       </c>
     </row>
     <row r="1469">
@@ -11847,7 +11847,7 @@
         <v>43112.0</v>
       </c>
       <c r="B1471" s="2" t="n">
-        <v>6.4581</v>
+        <v>6.458099999999999</v>
       </c>
     </row>
     <row r="1472">
@@ -11879,7 +11879,7 @@
         <v>43118.0</v>
       </c>
       <c r="B1475" s="2" t="n">
-        <v>6.4219</v>
+        <v>6.421900000000001</v>
       </c>
     </row>
     <row r="1476">
@@ -11887,7 +11887,7 @@
         <v>43119.0</v>
       </c>
       <c r="B1476" s="2" t="n">
-        <v>6.4005</v>
+        <v>6.400499999999999</v>
       </c>
     </row>
     <row r="1477">
@@ -11919,7 +11919,7 @@
         <v>43125.0</v>
       </c>
       <c r="B1480" s="2" t="n">
-        <v>6.3301</v>
+        <v>6.330099999999999</v>
       </c>
     </row>
     <row r="1481">
@@ -11935,7 +11935,7 @@
         <v>43129.0</v>
       </c>
       <c r="B1482" s="2" t="n">
-        <v>6.3381</v>
+        <v>6.338099999999999</v>
       </c>
     </row>
     <row r="1483">
@@ -11967,7 +11967,7 @@
         <v>43133.0</v>
       </c>
       <c r="B1486" s="2" t="n">
-        <v>6.31335</v>
+        <v>6.313350000000001</v>
       </c>
     </row>
     <row r="1487">
@@ -11991,7 +11991,7 @@
         <v>43138.0</v>
       </c>
       <c r="B1489" s="2" t="n">
-        <v>6.3197</v>
+        <v>6.319699999999999</v>
       </c>
     </row>
     <row r="1490">
@@ -11999,7 +11999,7 @@
         <v>43139.0</v>
       </c>
       <c r="B1490" s="2" t="n">
-        <v>6.3665</v>
+        <v>6.366499999999999</v>
       </c>
     </row>
     <row r="1491">
@@ -12023,7 +12023,7 @@
         <v>43144.0</v>
       </c>
       <c r="B1493" s="2" t="n">
-        <v>6.3337</v>
+        <v>6.333699999999999</v>
       </c>
     </row>
     <row r="1494">
@@ -12031,7 +12031,7 @@
         <v>43145.0</v>
       </c>
       <c r="B1494" s="2" t="n">
-        <v>6.3113</v>
+        <v>6.311299999999999</v>
       </c>
     </row>
     <row r="1495">
@@ -12079,7 +12079,7 @@
         <v>43153.0</v>
       </c>
       <c r="B1500" s="2" t="n">
-        <v>6.33395</v>
+        <v>6.333950000000001</v>
       </c>
     </row>
     <row r="1501">
@@ -12095,7 +12095,7 @@
         <v>43157.0</v>
       </c>
       <c r="B1502" s="2" t="n">
-        <v>6.2955</v>
+        <v>6.2955000000000005</v>
       </c>
     </row>
     <row r="1503">
@@ -12103,7 +12103,7 @@
         <v>43158.0</v>
       </c>
       <c r="B1503" s="2" t="n">
-        <v>6.3263</v>
+        <v>6.326300000000001</v>
       </c>
     </row>
     <row r="1504">
@@ -12135,7 +12135,7 @@
         <v>43164.0</v>
       </c>
       <c r="B1507" s="2" t="n">
-        <v>6.33515</v>
+        <v>6.3351500000000005</v>
       </c>
     </row>
     <row r="1508">
@@ -12159,7 +12159,7 @@
         <v>43167.0</v>
       </c>
       <c r="B1510" s="2" t="n">
-        <v>6.34405</v>
+        <v>6.344049999999999</v>
       </c>
     </row>
     <row r="1511">
@@ -12175,7 +12175,7 @@
         <v>43171.0</v>
       </c>
       <c r="B1512" s="2" t="n">
-        <v>6.3247</v>
+        <v>6.324700000000001</v>
       </c>
     </row>
     <row r="1513">
@@ -12215,7 +12215,7 @@
         <v>43178.0</v>
       </c>
       <c r="B1517" s="2" t="n">
-        <v>6.31885</v>
+        <v>6.318849999999999</v>
       </c>
     </row>
     <row r="1518">
@@ -12247,7 +12247,7 @@
         <v>43182.0</v>
       </c>
       <c r="B1521" s="2" t="n">
-        <v>6.31255</v>
+        <v>6.312550000000001</v>
       </c>
     </row>
     <row r="1522">
@@ -12279,7 +12279,7 @@
         <v>43188.0</v>
       </c>
       <c r="B1525" s="2" t="n">
-        <v>6.2729</v>
+        <v>6.272899999999999</v>
       </c>
     </row>
     <row r="1526">
@@ -12295,7 +12295,7 @@
         <v>43192.0</v>
       </c>
       <c r="B1527" s="2" t="n">
-        <v>6.26875</v>
+        <v>6.268750000000001</v>
       </c>
     </row>
     <row r="1528">
@@ -12343,7 +12343,7 @@
         <v>43200.0</v>
       </c>
       <c r="B1533" s="2" t="n">
-        <v>6.2777</v>
+        <v>6.277699999999999</v>
       </c>
     </row>
     <row r="1534">
@@ -12375,7 +12375,7 @@
         <v>43206.0</v>
       </c>
       <c r="B1537" s="2" t="n">
-        <v>6.26625</v>
+        <v>6.266249999999999</v>
       </c>
     </row>
     <row r="1538">
@@ -12407,7 +12407,7 @@
         <v>43210.0</v>
       </c>
       <c r="B1541" s="2" t="n">
-        <v>6.27915</v>
+        <v>6.2791500000000005</v>
       </c>
     </row>
     <row r="1542">
@@ -12415,7 +12415,7 @@
         <v>43213.0</v>
       </c>
       <c r="B1542" s="2" t="n">
-        <v>6.3091</v>
+        <v>6.309100000000001</v>
       </c>
     </row>
     <row r="1543">
@@ -12447,7 +12447,7 @@
         <v>43217.0</v>
       </c>
       <c r="B1546" s="2" t="n">
-        <v>6.32005</v>
+        <v>6.320049999999999</v>
       </c>
     </row>
     <row r="1547">
@@ -12471,7 +12471,7 @@
         <v>43222.0</v>
       </c>
       <c r="B1549" s="2" t="n">
-        <v>6.3749</v>
+        <v>6.374899999999999</v>
       </c>
     </row>
     <row r="1550">
@@ -12503,7 +12503,7 @@
         <v>43228.0</v>
       </c>
       <c r="B1553" s="2" t="n">
-        <v>6.3661</v>
+        <v>6.366099999999999</v>
       </c>
     </row>
     <row r="1554">
@@ -12527,7 +12527,7 @@
         <v>43231.0</v>
       </c>
       <c r="B1556" s="2" t="n">
-        <v>6.3353</v>
+        <v>6.335299999999999</v>
       </c>
     </row>
     <row r="1557">
@@ -12543,7 +12543,7 @@
         <v>43235.0</v>
       </c>
       <c r="B1558" s="2" t="n">
-        <v>6.36605</v>
+        <v>6.3660499999999995</v>
       </c>
     </row>
     <row r="1559">
@@ -12551,7 +12551,7 @@
         <v>43236.0</v>
       </c>
       <c r="B1559" s="2" t="n">
-        <v>6.3505</v>
+        <v>6.350499999999999</v>
       </c>
     </row>
     <row r="1560">
@@ -12599,7 +12599,7 @@
         <v>43244.0</v>
       </c>
       <c r="B1565" s="2" t="n">
-        <v>6.37435</v>
+        <v>6.374350000000001</v>
       </c>
     </row>
     <row r="1566">
@@ -12655,7 +12655,7 @@
         <v>43255.0</v>
       </c>
       <c r="B1572" s="2" t="n">
-        <v>6.4053</v>
+        <v>6.4052999999999995</v>
       </c>
     </row>
     <row r="1573">
@@ -12663,7 +12663,7 @@
         <v>43256.0</v>
       </c>
       <c r="B1573" s="2" t="n">
-        <v>6.39505</v>
+        <v>6.3950499999999995</v>
       </c>
     </row>
     <row r="1574">
@@ -12671,7 +12671,7 @@
         <v>43257.0</v>
       </c>
       <c r="B1574" s="2" t="n">
-        <v>6.37735</v>
+        <v>6.377350000000001</v>
       </c>
     </row>
     <row r="1575">
@@ -12767,7 +12767,7 @@
         <v>43273.0</v>
       </c>
       <c r="B1586" s="2" t="n">
-        <v>6.5103</v>
+        <v>6.510300000000001</v>
       </c>
     </row>
     <row r="1587">
@@ -12791,7 +12791,7 @@
         <v>43278.0</v>
       </c>
       <c r="B1589" s="2" t="n">
-        <v>6.61765</v>
+        <v>6.617649999999999</v>
       </c>
     </row>
     <row r="1590">
@@ -12799,7 +12799,7 @@
         <v>43279.0</v>
       </c>
       <c r="B1590" s="2" t="n">
-        <v>6.63575</v>
+        <v>6.635750000000001</v>
       </c>
     </row>
     <row r="1591">
@@ -12807,7 +12807,7 @@
         <v>43280.0</v>
       </c>
       <c r="B1591" s="2" t="n">
-        <v>6.63535</v>
+        <v>6.635350000000001</v>
       </c>
     </row>
     <row r="1592">
@@ -12815,7 +12815,7 @@
         <v>43283.0</v>
       </c>
       <c r="B1592" s="2" t="n">
-        <v>6.68545</v>
+        <v>6.6854499999999994</v>
       </c>
     </row>
     <row r="1593">
@@ -12823,7 +12823,7 @@
         <v>43284.0</v>
       </c>
       <c r="B1593" s="2" t="n">
-        <v>6.66605</v>
+        <v>6.666049999999999</v>
       </c>
     </row>
     <row r="1594">
@@ -12831,7 +12831,7 @@
         <v>43285.0</v>
       </c>
       <c r="B1594" s="2" t="n">
-        <v>6.6431</v>
+        <v>6.6431000000000004</v>
       </c>
     </row>
     <row r="1595">
@@ -12839,7 +12839,7 @@
         <v>43286.0</v>
       </c>
       <c r="B1595" s="2" t="n">
-        <v>6.65795</v>
+        <v>6.6579500000000005</v>
       </c>
     </row>
     <row r="1596">
@@ -12903,7 +12903,7 @@
         <v>43298.0</v>
       </c>
       <c r="B1603" s="2" t="n">
-        <v>6.7227</v>
+        <v>6.722700000000001</v>
       </c>
     </row>
     <row r="1604">
@@ -12911,7 +12911,7 @@
         <v>43299.0</v>
       </c>
       <c r="B1604" s="2" t="n">
-        <v>6.74635</v>
+        <v>6.7463500000000005</v>
       </c>
     </row>
     <row r="1605">
@@ -12919,7 +12919,7 @@
         <v>43300.0</v>
       </c>
       <c r="B1605" s="2" t="n">
-        <v>6.7907</v>
+        <v>6.790700000000001</v>
       </c>
     </row>
     <row r="1606">
@@ -12927,7 +12927,7 @@
         <v>43301.0</v>
       </c>
       <c r="B1606" s="2" t="n">
-        <v>6.7783</v>
+        <v>6.778300000000001</v>
       </c>
     </row>
     <row r="1607">
@@ -12959,7 +12959,7 @@
         <v>43307.0</v>
       </c>
       <c r="B1610" s="2" t="n">
-        <v>6.82555</v>
+        <v>6.825550000000001</v>
       </c>
     </row>
     <row r="1611">
@@ -12975,7 +12975,7 @@
         <v>43311.0</v>
       </c>
       <c r="B1612" s="2" t="n">
-        <v>6.83135</v>
+        <v>6.8313500000000005</v>
       </c>
     </row>
     <row r="1613">
@@ -13007,7 +13007,7 @@
         <v>43315.0</v>
       </c>
       <c r="B1616" s="2" t="n">
-        <v>6.8475</v>
+        <v>6.847500000000001</v>
       </c>
     </row>
     <row r="1617">
@@ -13055,7 +13055,7 @@
         <v>43325.0</v>
       </c>
       <c r="B1622" s="2" t="n">
-        <v>6.8955</v>
+        <v>6.895500000000001</v>
       </c>
     </row>
     <row r="1623">
@@ -13071,7 +13071,7 @@
         <v>43327.0</v>
       </c>
       <c r="B1624" s="2" t="n">
-        <v>6.9467</v>
+        <v>6.946700000000001</v>
       </c>
     </row>
     <row r="1625">
@@ -13095,7 +13095,7 @@
         <v>43332.0</v>
       </c>
       <c r="B1627" s="2" t="n">
-        <v>6.83525</v>
+        <v>6.835249999999999</v>
       </c>
     </row>
     <row r="1628">
@@ -13103,7 +13103,7 @@
         <v>43333.0</v>
       </c>
       <c r="B1628" s="2" t="n">
-        <v>6.82845</v>
+        <v>6.828449999999999</v>
       </c>
     </row>
     <row r="1629">
@@ -13111,7 +13111,7 @@
         <v>43334.0</v>
       </c>
       <c r="B1629" s="2" t="n">
-        <v>6.84695</v>
+        <v>6.8469500000000005</v>
       </c>
     </row>
     <row r="1630">
@@ -13119,7 +13119,7 @@
         <v>43335.0</v>
       </c>
       <c r="B1630" s="2" t="n">
-        <v>6.8937</v>
+        <v>6.893699999999999</v>
       </c>
     </row>
     <row r="1631">
@@ -13135,7 +13135,7 @@
         <v>43339.0</v>
       </c>
       <c r="B1632" s="2" t="n">
-        <v>6.7949</v>
+        <v>6.794899999999999</v>
       </c>
     </row>
     <row r="1633">
@@ -13151,7 +13151,7 @@
         <v>43341.0</v>
       </c>
       <c r="B1634" s="2" t="n">
-        <v>6.8195</v>
+        <v>6.819500000000001</v>
       </c>
     </row>
     <row r="1635">
@@ -13159,7 +13159,7 @@
         <v>43342.0</v>
       </c>
       <c r="B1635" s="2" t="n">
-        <v>6.8673</v>
+        <v>6.867299999999999</v>
       </c>
     </row>
     <row r="1636">
@@ -13175,7 +13175,7 @@
         <v>43346.0</v>
       </c>
       <c r="B1637" s="2" t="n">
-        <v>6.83515</v>
+        <v>6.8351500000000005</v>
       </c>
     </row>
     <row r="1638">
@@ -13199,7 +13199,7 @@
         <v>43349.0</v>
       </c>
       <c r="B1640" s="2" t="n">
-        <v>6.8447</v>
+        <v>6.8447000000000005</v>
       </c>
     </row>
     <row r="1641">
@@ -13215,7 +13215,7 @@
         <v>43353.0</v>
       </c>
       <c r="B1642" s="2" t="n">
-        <v>6.87015</v>
+        <v>6.870150000000001</v>
       </c>
     </row>
     <row r="1643">
@@ -13223,7 +13223,7 @@
         <v>43354.0</v>
       </c>
       <c r="B1643" s="2" t="n">
-        <v>6.87515</v>
+        <v>6.8751500000000005</v>
       </c>
     </row>
     <row r="1644">
@@ -13231,7 +13231,7 @@
         <v>43355.0</v>
       </c>
       <c r="B1644" s="2" t="n">
-        <v>6.8349</v>
+        <v>6.834899999999999</v>
       </c>
     </row>
     <row r="1645">
@@ -13239,7 +13239,7 @@
         <v>43356.0</v>
       </c>
       <c r="B1645" s="2" t="n">
-        <v>6.84495</v>
+        <v>6.844950000000001</v>
       </c>
     </row>
     <row r="1646">
@@ -13255,7 +13255,7 @@
         <v>43360.0</v>
       </c>
       <c r="B1647" s="2" t="n">
-        <v>6.87025</v>
+        <v>6.8702499999999995</v>
       </c>
     </row>
     <row r="1648">
@@ -13279,7 +13279,7 @@
         <v>43363.0</v>
       </c>
       <c r="B1650" s="2" t="n">
-        <v>6.83565</v>
+        <v>6.835649999999999</v>
       </c>
     </row>
     <row r="1651">
@@ -13311,7 +13311,7 @@
         <v>43369.0</v>
       </c>
       <c r="B1654" s="2" t="n">
-        <v>6.8761</v>
+        <v>6.876099999999999</v>
       </c>
     </row>
     <row r="1655">
@@ -13391,7 +13391,7 @@
         <v>43383.0</v>
       </c>
       <c r="B1664" s="2" t="n">
-        <v>6.9243</v>
+        <v>6.924300000000001</v>
       </c>
     </row>
     <row r="1665">
@@ -13399,7 +13399,7 @@
         <v>43384.0</v>
       </c>
       <c r="B1665" s="2" t="n">
-        <v>6.87855</v>
+        <v>6.878550000000001</v>
       </c>
     </row>
     <row r="1666">
@@ -13423,7 +13423,7 @@
         <v>43389.0</v>
       </c>
       <c r="B1668" s="2" t="n">
-        <v>6.9131</v>
+        <v>6.913100000000001</v>
       </c>
     </row>
     <row r="1669">
@@ -13447,7 +13447,7 @@
         <v>43392.0</v>
       </c>
       <c r="B1671" s="2" t="n">
-        <v>6.93455</v>
+        <v>6.934550000000001</v>
       </c>
     </row>
     <row r="1672">
@@ -13455,7 +13455,7 @@
         <v>43395.0</v>
       </c>
       <c r="B1672" s="2" t="n">
-        <v>6.93745</v>
+        <v>6.937449999999999</v>
       </c>
     </row>
     <row r="1673">
@@ -13543,7 +13543,7 @@
         <v>43410.0</v>
       </c>
       <c r="B1683" s="2" t="n">
-        <v>6.92275</v>
+        <v>6.922750000000001</v>
       </c>
     </row>
     <row r="1684">
@@ -13551,7 +13551,7 @@
         <v>43411.0</v>
       </c>
       <c r="B1684" s="2" t="n">
-        <v>6.9181</v>
+        <v>6.918099999999999</v>
       </c>
     </row>
     <row r="1685">
@@ -13575,7 +13575,7 @@
         <v>43416.0</v>
       </c>
       <c r="B1687" s="2" t="n">
-        <v>6.96435</v>
+        <v>6.9643500000000005</v>
       </c>
     </row>
     <row r="1688">
@@ -13583,7 +13583,7 @@
         <v>43417.0</v>
       </c>
       <c r="B1688" s="2" t="n">
-        <v>6.9463</v>
+        <v>6.946300000000001</v>
       </c>
     </row>
     <row r="1689">
@@ -13599,7 +13599,7 @@
         <v>43419.0</v>
       </c>
       <c r="B1690" s="2" t="n">
-        <v>6.9287</v>
+        <v>6.928700000000001</v>
       </c>
     </row>
     <row r="1691">
@@ -13663,7 +13663,7 @@
         <v>43431.0</v>
       </c>
       <c r="B1698" s="2" t="n">
-        <v>6.95395</v>
+        <v>6.953950000000001</v>
       </c>
     </row>
     <row r="1699">
@@ -13687,7 +13687,7 @@
         <v>43434.0</v>
       </c>
       <c r="B1701" s="2" t="n">
-        <v>6.95135</v>
+        <v>6.951350000000001</v>
       </c>
     </row>
     <row r="1702">
@@ -13703,7 +13703,7 @@
         <v>43438.0</v>
       </c>
       <c r="B1703" s="2" t="n">
-        <v>6.8493</v>
+        <v>6.8492999999999995</v>
       </c>
     </row>
     <row r="1704">
@@ -13711,7 +13711,7 @@
         <v>43439.0</v>
       </c>
       <c r="B1704" s="2" t="n">
-        <v>6.8593</v>
+        <v>6.859299999999999</v>
       </c>
     </row>
     <row r="1705">
@@ -13743,7 +13743,7 @@
         <v>43445.0</v>
       </c>
       <c r="B1708" s="2" t="n">
-        <v>6.9071</v>
+        <v>6.907100000000001</v>
       </c>
     </row>
     <row r="1709">
@@ -13751,7 +13751,7 @@
         <v>43446.0</v>
       </c>
       <c r="B1709" s="2" t="n">
-        <v>6.86935</v>
+        <v>6.869350000000001</v>
       </c>
     </row>
     <row r="1710">
@@ -13759,7 +13759,7 @@
         <v>43447.0</v>
       </c>
       <c r="B1710" s="2" t="n">
-        <v>6.8781</v>
+        <v>6.878099999999999</v>
       </c>
     </row>
     <row r="1711">
@@ -13783,7 +13783,7 @@
         <v>43452.0</v>
       </c>
       <c r="B1713" s="2" t="n">
-        <v>6.8925</v>
+        <v>6.892499999999999</v>
       </c>
     </row>
     <row r="1714">
@@ -13791,7 +13791,7 @@
         <v>43453.0</v>
       </c>
       <c r="B1714" s="2" t="n">
-        <v>6.9059</v>
+        <v>6.905900000000001</v>
       </c>
     </row>
     <row r="1715">
@@ -13799,7 +13799,7 @@
         <v>43454.0</v>
       </c>
       <c r="B1715" s="2" t="n">
-        <v>6.8931</v>
+        <v>6.8931000000000004</v>
       </c>
     </row>
     <row r="1716">
@@ -13807,7 +13807,7 @@
         <v>43455.0</v>
       </c>
       <c r="B1716" s="2" t="n">
-        <v>6.9239</v>
+        <v>6.923900000000001</v>
       </c>
     </row>
     <row r="1717">
@@ -13839,7 +13839,7 @@
         <v>43461.0</v>
       </c>
       <c r="B1720" s="2" t="n">
-        <v>6.87435</v>
+        <v>6.874350000000001</v>
       </c>
     </row>
     <row r="1721">
@@ -13855,7 +13855,7 @@
         <v>43465.0</v>
       </c>
       <c r="B1722" s="2" t="n">
-        <v>6.87015</v>
+        <v>6.870150000000001</v>
       </c>
     </row>
     <row r="1723">
@@ -13879,7 +13879,7 @@
         <v>43468.0</v>
       </c>
       <c r="B1725" s="2" t="n">
-        <v>6.8821</v>
+        <v>6.882099999999999</v>
       </c>
     </row>
     <row r="1726">
@@ -13887,7 +13887,7 @@
         <v>43469.0</v>
       </c>
       <c r="B1726" s="2" t="n">
-        <v>6.8653</v>
+        <v>6.8652999999999995</v>
       </c>
     </row>
     <row r="1727">
@@ -13895,7 +13895,7 @@
         <v>43472.0</v>
       </c>
       <c r="B1727" s="2" t="n">
-        <v>6.84575</v>
+        <v>6.845750000000001</v>
       </c>
     </row>
     <row r="1728">
@@ -13911,7 +13911,7 @@
         <v>43474.0</v>
       </c>
       <c r="B1729" s="2" t="n">
-        <v>6.81245</v>
+        <v>6.812449999999999</v>
       </c>
     </row>
     <row r="1730">
@@ -13919,7 +13919,7 @@
         <v>43475.0</v>
       </c>
       <c r="B1730" s="2" t="n">
-        <v>6.79315</v>
+        <v>6.793150000000001</v>
       </c>
     </row>
     <row r="1731">
@@ -13927,7 +13927,7 @@
         <v>43476.0</v>
       </c>
       <c r="B1731" s="2" t="n">
-        <v>6.7609</v>
+        <v>6.7608999999999995</v>
       </c>
     </row>
     <row r="1732">
@@ -13943,7 +13943,7 @@
         <v>43480.0</v>
       </c>
       <c r="B1733" s="2" t="n">
-        <v>6.77375</v>
+        <v>6.773750000000001</v>
       </c>
     </row>
     <row r="1734">
@@ -13951,7 +13951,7 @@
         <v>43481.0</v>
       </c>
       <c r="B1734" s="2" t="n">
-        <v>6.7631</v>
+        <v>6.7631000000000006</v>
       </c>
     </row>
     <row r="1735">
@@ -13959,7 +13959,7 @@
         <v>43482.0</v>
       </c>
       <c r="B1735" s="2" t="n">
-        <v>6.77715</v>
+        <v>6.777150000000001</v>
       </c>
     </row>
     <row r="1736">
@@ -14023,7 +14023,7 @@
         <v>43494.0</v>
       </c>
       <c r="B1743" s="2" t="n">
-        <v>6.7475</v>
+        <v>6.7475000000000005</v>
       </c>
     </row>
     <row r="1744">
@@ -14039,7 +14039,7 @@
         <v>43496.0</v>
       </c>
       <c r="B1745" s="2" t="n">
-        <v>6.70935</v>
+        <v>6.709350000000001</v>
       </c>
     </row>
     <row r="1746">
@@ -14047,7 +14047,7 @@
         <v>43497.0</v>
       </c>
       <c r="B1746" s="2" t="n">
-        <v>6.75695</v>
+        <v>6.756950000000001</v>
       </c>
     </row>
     <row r="1747">
@@ -14063,7 +14063,7 @@
         <v>43501.0</v>
       </c>
       <c r="B1748" s="2" t="n">
-        <v>6.76275</v>
+        <v>6.7627500000000005</v>
       </c>
     </row>
     <row r="1749">
@@ -14071,7 +14071,7 @@
         <v>43502.0</v>
       </c>
       <c r="B1749" s="2" t="n">
-        <v>6.7785</v>
+        <v>6.778499999999999</v>
       </c>
     </row>
     <row r="1750">
@@ -14119,7 +14119,7 @@
         <v>43510.0</v>
       </c>
       <c r="B1755" s="2" t="n">
-        <v>6.7791</v>
+        <v>6.779100000000001</v>
       </c>
     </row>
     <row r="1756">
@@ -14127,7 +14127,7 @@
         <v>43511.0</v>
       </c>
       <c r="B1756" s="2" t="n">
-        <v>6.7703</v>
+        <v>6.770300000000001</v>
       </c>
     </row>
     <row r="1757">
@@ -14135,7 +14135,7 @@
         <v>43514.0</v>
       </c>
       <c r="B1757" s="2" t="n">
-        <v>6.77335</v>
+        <v>6.773350000000001</v>
       </c>
     </row>
     <row r="1758">
@@ -14167,7 +14167,7 @@
         <v>43518.0</v>
       </c>
       <c r="B1761" s="2" t="n">
-        <v>6.70225</v>
+        <v>6.702249999999999</v>
       </c>
     </row>
     <row r="1762">
@@ -14207,7 +14207,7 @@
         <v>43525.0</v>
       </c>
       <c r="B1766" s="2" t="n">
-        <v>6.7139</v>
+        <v>6.713900000000001</v>
       </c>
     </row>
     <row r="1767">
@@ -14215,7 +14215,7 @@
         <v>43528.0</v>
       </c>
       <c r="B1767" s="2" t="n">
-        <v>6.70725</v>
+        <v>6.707249999999999</v>
       </c>
     </row>
     <row r="1768">
@@ -14223,7 +14223,7 @@
         <v>43529.0</v>
       </c>
       <c r="B1768" s="2" t="n">
-        <v>6.7045</v>
+        <v>6.7044999999999995</v>
       </c>
     </row>
     <row r="1769">
@@ -14247,7 +14247,7 @@
         <v>43532.0</v>
       </c>
       <c r="B1771" s="2" t="n">
-        <v>6.7311</v>
+        <v>6.7311000000000005</v>
       </c>
     </row>
     <row r="1772">
@@ -14271,7 +14271,7 @@
         <v>43537.0</v>
       </c>
       <c r="B1774" s="2" t="n">
-        <v>6.70135</v>
+        <v>6.701350000000001</v>
       </c>
     </row>
     <row r="1775">
@@ -14287,7 +14287,7 @@
         <v>43539.0</v>
       </c>
       <c r="B1776" s="2" t="n">
-        <v>6.7135</v>
+        <v>6.713500000000001</v>
       </c>
     </row>
     <row r="1777">
@@ -14295,7 +14295,7 @@
         <v>43542.0</v>
       </c>
       <c r="B1777" s="2" t="n">
-        <v>6.72085</v>
+        <v>6.7208499999999995</v>
       </c>
     </row>
     <row r="1778">
@@ -14319,7 +14319,7 @@
         <v>43545.0</v>
       </c>
       <c r="B1780" s="2" t="n">
-        <v>6.70725</v>
+        <v>6.707249999999999</v>
       </c>
     </row>
     <row r="1781">
@@ -14359,7 +14359,7 @@
         <v>43552.0</v>
       </c>
       <c r="B1785" s="2" t="n">
-        <v>6.7395</v>
+        <v>6.7395000000000005</v>
       </c>
     </row>
     <row r="1786">
@@ -14375,7 +14375,7 @@
         <v>43556.0</v>
       </c>
       <c r="B1787" s="2" t="n">
-        <v>6.7191</v>
+        <v>6.719100000000001</v>
       </c>
     </row>
     <row r="1788">
@@ -14391,7 +14391,7 @@
         <v>43558.0</v>
       </c>
       <c r="B1789" s="2" t="n">
-        <v>6.7149</v>
+        <v>6.714899999999999</v>
       </c>
     </row>
     <row r="1790">
@@ -14439,7 +14439,7 @@
         <v>43566.0</v>
       </c>
       <c r="B1795" s="2" t="n">
-        <v>6.72875</v>
+        <v>6.728750000000001</v>
       </c>
     </row>
     <row r="1796">
@@ -14455,7 +14455,7 @@
         <v>43570.0</v>
       </c>
       <c r="B1797" s="2" t="n">
-        <v>6.70725</v>
+        <v>6.707249999999999</v>
       </c>
     </row>
     <row r="1798">
@@ -14471,7 +14471,7 @@
         <v>43572.0</v>
       </c>
       <c r="B1799" s="2" t="n">
-        <v>6.67665</v>
+        <v>6.6766499999999995</v>
       </c>
     </row>
     <row r="1800">
@@ -14559,7 +14559,7 @@
         <v>43587.0</v>
       </c>
       <c r="B1810" s="2" t="n">
-        <v>6.7473</v>
+        <v>6.747299999999999</v>
       </c>
     </row>
     <row r="1811">
@@ -14575,7 +14575,7 @@
         <v>43591.0</v>
       </c>
       <c r="B1812" s="2" t="n">
-        <v>6.77385</v>
+        <v>6.7738499999999995</v>
       </c>
     </row>
     <row r="1813">
@@ -14599,7 +14599,7 @@
         <v>43594.0</v>
       </c>
       <c r="B1815" s="2" t="n">
-        <v>6.83775</v>
+        <v>6.837750000000001</v>
       </c>
     </row>
     <row r="1816">
@@ -14607,7 +14607,7 @@
         <v>43595.0</v>
       </c>
       <c r="B1816" s="2" t="n">
-        <v>6.84495</v>
+        <v>6.844950000000001</v>
       </c>
     </row>
     <row r="1817">
@@ -14631,7 +14631,7 @@
         <v>43600.0</v>
       </c>
       <c r="B1819" s="2" t="n">
-        <v>6.90345</v>
+        <v>6.903449999999999</v>
       </c>
     </row>
     <row r="1820">
@@ -14639,7 +14639,7 @@
         <v>43601.0</v>
       </c>
       <c r="B1820" s="2" t="n">
-        <v>6.9291</v>
+        <v>6.929100000000001</v>
       </c>
     </row>
     <row r="1821">
@@ -14655,7 +14655,7 @@
         <v>43605.0</v>
       </c>
       <c r="B1822" s="2" t="n">
-        <v>6.93965</v>
+        <v>6.939649999999999</v>
       </c>
     </row>
     <row r="1823">
@@ -14695,7 +14695,7 @@
         <v>43612.0</v>
       </c>
       <c r="B1827" s="2" t="n">
-        <v>6.9085</v>
+        <v>6.908499999999999</v>
       </c>
     </row>
     <row r="1828">
@@ -14719,7 +14719,7 @@
         <v>43615.0</v>
       </c>
       <c r="B1830" s="2" t="n">
-        <v>6.92905</v>
+        <v>6.929049999999999</v>
       </c>
     </row>
     <row r="1831">
@@ -14735,7 +14735,7 @@
         <v>43619.0</v>
       </c>
       <c r="B1832" s="2" t="n">
-        <v>6.92195</v>
+        <v>6.921950000000001</v>
       </c>
     </row>
     <row r="1833">
@@ -14751,7 +14751,7 @@
         <v>43621.0</v>
       </c>
       <c r="B1834" s="2" t="n">
-        <v>6.9291</v>
+        <v>6.929100000000001</v>
       </c>
     </row>
     <row r="1835">
@@ -14767,7 +14767,7 @@
         <v>43623.0</v>
       </c>
       <c r="B1836" s="2" t="n">
-        <v>6.9439</v>
+        <v>6.943900000000001</v>
       </c>
     </row>
     <row r="1837">
@@ -14791,7 +14791,7 @@
         <v>43628.0</v>
       </c>
       <c r="B1839" s="2" t="n">
-        <v>6.92865</v>
+        <v>6.928649999999999</v>
       </c>
     </row>
     <row r="1840">
@@ -14807,7 +14807,7 @@
         <v>43630.0</v>
       </c>
       <c r="B1841" s="2" t="n">
-        <v>6.92995</v>
+        <v>6.929950000000001</v>
       </c>
     </row>
     <row r="1842">
@@ -14815,7 +14815,7 @@
         <v>43633.0</v>
       </c>
       <c r="B1842" s="2" t="n">
-        <v>6.93035</v>
+        <v>6.930350000000001</v>
       </c>
     </row>
     <row r="1843">
@@ -14847,7 +14847,7 @@
         <v>43637.0</v>
       </c>
       <c r="B1846" s="2" t="n">
-        <v>6.8635</v>
+        <v>6.863500000000001</v>
       </c>
     </row>
     <row r="1847">
@@ -14855,7 +14855,7 @@
         <v>43640.0</v>
       </c>
       <c r="B1847" s="2" t="n">
-        <v>6.87555</v>
+        <v>6.8755500000000005</v>
       </c>
     </row>
     <row r="1848">
@@ -14863,7 +14863,7 @@
         <v>43641.0</v>
       </c>
       <c r="B1848" s="2" t="n">
-        <v>6.8843</v>
+        <v>6.8843000000000005</v>
       </c>
     </row>
     <row r="1849">
@@ -14887,7 +14887,7 @@
         <v>43644.0</v>
       </c>
       <c r="B1851" s="2" t="n">
-        <v>6.8687</v>
+        <v>6.8687000000000005</v>
       </c>
     </row>
     <row r="1852">
@@ -14895,7 +14895,7 @@
         <v>43647.0</v>
       </c>
       <c r="B1852" s="2" t="n">
-        <v>6.8577</v>
+        <v>6.8576999999999995</v>
       </c>
     </row>
     <row r="1853">
@@ -14903,7 +14903,7 @@
         <v>43648.0</v>
       </c>
       <c r="B1853" s="2" t="n">
-        <v>6.88775</v>
+        <v>6.8877500000000005</v>
       </c>
     </row>
     <row r="1854">
@@ -14927,7 +14927,7 @@
         <v>43651.0</v>
       </c>
       <c r="B1856" s="2" t="n">
-        <v>6.89535</v>
+        <v>6.8953500000000005</v>
       </c>
     </row>
     <row r="1857">
@@ -14935,7 +14935,7 @@
         <v>43654.0</v>
       </c>
       <c r="B1857" s="2" t="n">
-        <v>6.8887</v>
+        <v>6.888700000000001</v>
       </c>
     </row>
     <row r="1858">
@@ -14967,7 +14967,7 @@
         <v>43658.0</v>
       </c>
       <c r="B1861" s="2" t="n">
-        <v>6.8789</v>
+        <v>6.878899999999999</v>
       </c>
     </row>
     <row r="1862">
@@ -14999,7 +14999,7 @@
         <v>43664.0</v>
       </c>
       <c r="B1865" s="2" t="n">
-        <v>6.8735</v>
+        <v>6.873500000000001</v>
       </c>
     </row>
     <row r="1866">
@@ -15047,7 +15047,7 @@
         <v>43672.0</v>
       </c>
       <c r="B1871" s="2" t="n">
-        <v>6.88275</v>
+        <v>6.882750000000001</v>
       </c>
     </row>
     <row r="1872">
@@ -15063,7 +15063,7 @@
         <v>43676.0</v>
       </c>
       <c r="B1873" s="2" t="n">
-        <v>6.8895</v>
+        <v>6.889500000000001</v>
       </c>
     </row>
     <row r="1874">
@@ -15071,7 +15071,7 @@
         <v>43677.0</v>
       </c>
       <c r="B1874" s="2" t="n">
-        <v>6.9097</v>
+        <v>6.909699999999999</v>
       </c>
     </row>
     <row r="1875">
@@ -15079,7 +15079,7 @@
         <v>43678.0</v>
       </c>
       <c r="B1875" s="2" t="n">
-        <v>6.9549</v>
+        <v>6.954899999999999</v>
       </c>
     </row>
     <row r="1876">
@@ -15103,7 +15103,7 @@
         <v>43683.0</v>
       </c>
       <c r="B1878" s="2" t="n">
-        <v>7.05365</v>
+        <v>7.053649999999999</v>
       </c>
     </row>
     <row r="1879">
@@ -15111,7 +15111,7 @@
         <v>43684.0</v>
       </c>
       <c r="B1879" s="2" t="n">
-        <v>7.0827</v>
+        <v>7.082700000000001</v>
       </c>
     </row>
     <row r="1880">
@@ -15119,7 +15119,7 @@
         <v>43685.0</v>
       </c>
       <c r="B1880" s="2" t="n">
-        <v>7.0771</v>
+        <v>7.077100000000001</v>
       </c>
     </row>
     <row r="1881">
@@ -15127,7 +15127,7 @@
         <v>43686.0</v>
       </c>
       <c r="B1881" s="2" t="n">
-        <v>7.0983</v>
+        <v>7.098300000000001</v>
       </c>
     </row>
     <row r="1882">
@@ -15143,7 +15143,7 @@
         <v>43690.0</v>
       </c>
       <c r="B1883" s="2" t="n">
-        <v>7.0107</v>
+        <v>7.010700000000001</v>
       </c>
     </row>
     <row r="1884">
@@ -15159,7 +15159,7 @@
         <v>43692.0</v>
       </c>
       <c r="B1885" s="2" t="n">
-        <v>7.04865</v>
+        <v>7.048649999999999</v>
       </c>
     </row>
     <row r="1886">
@@ -15175,7 +15175,7 @@
         <v>43696.0</v>
       </c>
       <c r="B1887" s="2" t="n">
-        <v>7.07555</v>
+        <v>7.075550000000001</v>
       </c>
     </row>
     <row r="1888">
@@ -15183,7 +15183,7 @@
         <v>43697.0</v>
       </c>
       <c r="B1888" s="2" t="n">
-        <v>7.0709</v>
+        <v>7.070899999999999</v>
       </c>
     </row>
     <row r="1889">
@@ -15191,7 +15191,7 @@
         <v>43698.0</v>
       </c>
       <c r="B1889" s="2" t="n">
-        <v>7.0681</v>
+        <v>7.068099999999999</v>
       </c>
     </row>
     <row r="1890">
@@ -15255,7 +15255,7 @@
         <v>43710.0</v>
       </c>
       <c r="B1897" s="2" t="n">
-        <v>7.1947</v>
+        <v>7.194700000000001</v>
       </c>
     </row>
     <row r="1898">
@@ -15287,7 +15287,7 @@
         <v>43714.0</v>
       </c>
       <c r="B1901" s="2" t="n">
-        <v>7.1063</v>
+        <v>7.106300000000001</v>
       </c>
     </row>
     <row r="1902">
@@ -15319,7 +15319,7 @@
         <v>43720.0</v>
       </c>
       <c r="B1905" s="2" t="n">
-        <v>7.0687</v>
+        <v>7.068700000000001</v>
       </c>
     </row>
     <row r="1906">
@@ -15351,7 +15351,7 @@
         <v>43726.0</v>
       </c>
       <c r="B1909" s="2" t="n">
-        <v>7.08315</v>
+        <v>7.083150000000001</v>
       </c>
     </row>
     <row r="1910">
@@ -15367,7 +15367,7 @@
         <v>43728.0</v>
       </c>
       <c r="B1911" s="2" t="n">
-        <v>7.1205</v>
+        <v>7.120499999999999</v>
       </c>
     </row>
     <row r="1912">
@@ -15375,7 +15375,7 @@
         <v>43731.0</v>
       </c>
       <c r="B1912" s="2" t="n">
-        <v>7.1103</v>
+        <v>7.1103000000000005</v>
       </c>
     </row>
     <row r="1913">
@@ -15439,7 +15439,7 @@
         <v>43741.0</v>
       </c>
       <c r="B1920" s="2" t="n">
-        <v>7.12825</v>
+        <v>7.1282499999999995</v>
       </c>
     </row>
     <row r="1921">
@@ -15455,7 +15455,7 @@
         <v>43745.0</v>
       </c>
       <c r="B1922" s="2" t="n">
-        <v>7.1345</v>
+        <v>7.134499999999999</v>
       </c>
     </row>
     <row r="1923">
@@ -15463,7 +15463,7 @@
         <v>43746.0</v>
       </c>
       <c r="B1923" s="2" t="n">
-        <v>7.1647</v>
+        <v>7.164700000000001</v>
       </c>
     </row>
     <row r="1924">
@@ -15487,7 +15487,7 @@
         <v>43749.0</v>
       </c>
       <c r="B1926" s="2" t="n">
-        <v>7.08825</v>
+        <v>7.0882499999999995</v>
       </c>
     </row>
     <row r="1927">
@@ -15511,7 +15511,7 @@
         <v>43754.0</v>
       </c>
       <c r="B1929" s="2" t="n">
-        <v>7.1011</v>
+        <v>7.101100000000001</v>
       </c>
     </row>
     <row r="1930">
@@ -15527,7 +15527,7 @@
         <v>43756.0</v>
       </c>
       <c r="B1931" s="2" t="n">
-        <v>7.07255</v>
+        <v>7.072550000000001</v>
       </c>
     </row>
     <row r="1932">
@@ -15535,7 +15535,7 @@
         <v>43759.0</v>
       </c>
       <c r="B1932" s="2" t="n">
-        <v>7.06955</v>
+        <v>7.0695500000000004</v>
       </c>
     </row>
     <row r="1933">
@@ -15543,7 +15543,7 @@
         <v>43760.0</v>
       </c>
       <c r="B1933" s="2" t="n">
-        <v>7.07675</v>
+        <v>7.0767500000000005</v>
       </c>
     </row>
     <row r="1934">
@@ -15559,7 +15559,7 @@
         <v>43762.0</v>
       </c>
       <c r="B1935" s="2" t="n">
-        <v>7.0727</v>
+        <v>7.072700000000001</v>
       </c>
     </row>
     <row r="1936">
@@ -15567,7 +15567,7 @@
         <v>43763.0</v>
       </c>
       <c r="B1936" s="2" t="n">
-        <v>7.0511</v>
+        <v>7.051100000000001</v>
       </c>
     </row>
     <row r="1937">
@@ -15583,7 +15583,7 @@
         <v>43767.0</v>
       </c>
       <c r="B1938" s="2" t="n">
-        <v>7.0655</v>
+        <v>7.065500000000001</v>
       </c>
     </row>
     <row r="1939">
@@ -15591,7 +15591,7 @@
         <v>43768.0</v>
       </c>
       <c r="B1939" s="2" t="n">
-        <v>7.0443</v>
+        <v>7.044300000000001</v>
       </c>
     </row>
     <row r="1940">
@@ -15599,7 +15599,7 @@
         <v>43769.0</v>
       </c>
       <c r="B1940" s="2" t="n">
-        <v>7.04655</v>
+        <v>7.046550000000001</v>
       </c>
     </row>
     <row r="1941">
@@ -15607,7 +15607,7 @@
         <v>43770.0</v>
       </c>
       <c r="B1941" s="2" t="n">
-        <v>7.0415</v>
+        <v>7.041500000000001</v>
       </c>
     </row>
     <row r="1942">
@@ -15615,7 +15615,7 @@
         <v>43773.0</v>
       </c>
       <c r="B1942" s="2" t="n">
-        <v>7.03305</v>
+        <v>7.033049999999999</v>
       </c>
     </row>
     <row r="1943">
@@ -15631,7 +15631,7 @@
         <v>43775.0</v>
       </c>
       <c r="B1944" s="2" t="n">
-        <v>7.01195</v>
+        <v>7.011950000000001</v>
       </c>
     </row>
     <row r="1945">
@@ -15647,7 +15647,7 @@
         <v>43777.0</v>
       </c>
       <c r="B1946" s="2" t="n">
-        <v>6.9883</v>
+        <v>6.988300000000001</v>
       </c>
     </row>
     <row r="1947">
@@ -15663,7 +15663,7 @@
         <v>43781.0</v>
       </c>
       <c r="B1948" s="2" t="n">
-        <v>7.02425</v>
+        <v>7.024249999999999</v>
       </c>
     </row>
     <row r="1949">
@@ -15687,7 +15687,7 @@
         <v>43784.0</v>
       </c>
       <c r="B1951" s="2" t="n">
-        <v>7.0053</v>
+        <v>7.005299999999999</v>
       </c>
     </row>
     <row r="1952">
@@ -15719,7 +15719,7 @@
         <v>43790.0</v>
       </c>
       <c r="B1955" s="2" t="n">
-        <v>7.03255</v>
+        <v>7.0325500000000005</v>
       </c>
     </row>
     <row r="1956">
@@ -15735,7 +15735,7 @@
         <v>43794.0</v>
       </c>
       <c r="B1957" s="2" t="n">
-        <v>7.03095</v>
+        <v>7.030950000000001</v>
       </c>
     </row>
     <row r="1958">
@@ -15743,7 +15743,7 @@
         <v>43795.0</v>
       </c>
       <c r="B1958" s="2" t="n">
-        <v>7.0131</v>
+        <v>7.0131000000000006</v>
       </c>
     </row>
     <row r="1959">
@@ -15759,7 +15759,7 @@
         <v>43797.0</v>
       </c>
       <c r="B1960" s="2" t="n">
-        <v>7.0317</v>
+        <v>7.031699999999999</v>
       </c>
     </row>
     <row r="1961">
@@ -15775,7 +15775,7 @@
         <v>43801.0</v>
       </c>
       <c r="B1962" s="2" t="n">
-        <v>7.04365</v>
+        <v>7.0436499999999995</v>
       </c>
     </row>
     <row r="1963">
@@ -15791,7 +15791,7 @@
         <v>43803.0</v>
       </c>
       <c r="B1964" s="2" t="n">
-        <v>7.05235</v>
+        <v>7.052350000000001</v>
       </c>
     </row>
     <row r="1965">
@@ -15823,7 +15823,7 @@
         <v>43809.0</v>
       </c>
       <c r="B1968" s="2" t="n">
-        <v>7.0271</v>
+        <v>7.027100000000001</v>
       </c>
     </row>
     <row r="1969">
@@ -15831,7 +15831,7 @@
         <v>43810.0</v>
       </c>
       <c r="B1969" s="2" t="n">
-        <v>7.02795</v>
+        <v>7.027950000000001</v>
       </c>
     </row>
     <row r="1970">
@@ -15863,7 +15863,7 @@
         <v>43816.0</v>
       </c>
       <c r="B1973" s="2" t="n">
-        <v>6.9989</v>
+        <v>6.998899999999999</v>
       </c>
     </row>
     <row r="1974">
@@ -15871,7 +15871,7 @@
         <v>43817.0</v>
       </c>
       <c r="B1974" s="2" t="n">
-        <v>7.00275</v>
+        <v>7.002750000000001</v>
       </c>
     </row>
     <row r="1975">
@@ -15887,7 +15887,7 @@
         <v>43819.0</v>
       </c>
       <c r="B1976" s="2" t="n">
-        <v>7.0011</v>
+        <v>7.001100000000001</v>
       </c>
     </row>
     <row r="1977">
@@ -15935,7 +15935,7 @@
         <v>43829.0</v>
       </c>
       <c r="B1982" s="2" t="n">
-        <v>6.98465</v>
+        <v>6.984649999999999</v>
       </c>
     </row>
     <row r="1983">
@@ -15943,7 +15943,7 @@
         <v>43830.0</v>
       </c>
       <c r="B1983" s="2" t="n">
-        <v>6.9617</v>
+        <v>6.9616999999999996</v>
       </c>
     </row>
     <row r="1984">
@@ -15951,7 +15951,7 @@
         <v>43831.0</v>
       </c>
       <c r="B1984" s="2" t="n">
-        <v>6.9655</v>
+        <v>6.9655000000000005</v>
       </c>
     </row>
     <row r="1985">
@@ -15959,7 +15959,7 @@
         <v>43832.0</v>
       </c>
       <c r="B1985" s="2" t="n">
-        <v>6.95945</v>
+        <v>6.9594499999999995</v>
       </c>
     </row>
     <row r="1986">
@@ -15967,7 +15967,7 @@
         <v>43833.0</v>
       </c>
       <c r="B1986" s="2" t="n">
-        <v>6.96705</v>
+        <v>6.9670499999999995</v>
       </c>
     </row>
     <row r="1987">
@@ -16023,7 +16023,7 @@
         <v>43844.0</v>
       </c>
       <c r="B1993" s="2" t="n">
-        <v>6.8895</v>
+        <v>6.889500000000001</v>
       </c>
     </row>
     <row r="1994">
@@ -16031,7 +16031,7 @@
         <v>43845.0</v>
       </c>
       <c r="B1994" s="2" t="n">
-        <v>6.89195</v>
+        <v>6.8919500000000005</v>
       </c>
     </row>
     <row r="1995">
@@ -16039,7 +16039,7 @@
         <v>43846.0</v>
       </c>
       <c r="B1995" s="2" t="n">
-        <v>6.8769</v>
+        <v>6.876899999999999</v>
       </c>
     </row>
     <row r="1996">
@@ -16047,7 +16047,7 @@
         <v>43847.0</v>
       </c>
       <c r="B1996" s="2" t="n">
-        <v>6.86685</v>
+        <v>6.8668499999999995</v>
       </c>
     </row>
     <row r="1997">
@@ -16055,7 +16055,7 @@
         <v>43850.0</v>
       </c>
       <c r="B1997" s="2" t="n">
-        <v>6.86685</v>
+        <v>6.8668499999999995</v>
       </c>
     </row>
     <row r="1998">
@@ -16087,7 +16087,7 @@
         <v>43854.0</v>
       </c>
       <c r="B2001" s="2" t="n">
-        <v>6.93035</v>
+        <v>6.930350000000001</v>
       </c>
     </row>
     <row r="2002">
@@ -16095,7 +16095,7 @@
         <v>43857.0</v>
       </c>
       <c r="B2002" s="2" t="n">
-        <v>6.98545</v>
+        <v>6.985449999999999</v>
       </c>
     </row>
     <row r="2003">
@@ -16103,7 +16103,7 @@
         <v>43858.0</v>
       </c>
       <c r="B2003" s="2" t="n">
-        <v>6.9657</v>
+        <v>6.965699999999999</v>
       </c>
     </row>
     <row r="2004">
@@ -16159,7 +16159,7 @@
         <v>43867.0</v>
       </c>
       <c r="B2010" s="2" t="n">
-        <v>6.97885</v>
+        <v>6.9788499999999996</v>
       </c>
     </row>
     <row r="2011">
@@ -16239,7 +16239,7 @@
         <v>43881.0</v>
       </c>
       <c r="B2020" s="2" t="n">
-        <v>7.0451</v>
+        <v>7.045100000000001</v>
       </c>
     </row>
     <row r="2021">
@@ -16247,7 +16247,7 @@
         <v>43882.0</v>
       </c>
       <c r="B2021" s="2" t="n">
-        <v>7.03565</v>
+        <v>7.0356499999999995</v>
       </c>
     </row>
     <row r="2022">
@@ -16263,7 +16263,7 @@
         <v>43886.0</v>
       </c>
       <c r="B2023" s="2" t="n">
-        <v>7.0277</v>
+        <v>7.027699999999999</v>
       </c>
     </row>
     <row r="2024">
@@ -16271,7 +16271,7 @@
         <v>43887.0</v>
       </c>
       <c r="B2024" s="2" t="n">
-        <v>7.02205</v>
+        <v>7.022049999999999</v>
       </c>
     </row>
     <row r="2025">
@@ -16287,7 +16287,7 @@
         <v>43889.0</v>
       </c>
       <c r="B2026" s="2" t="n">
-        <v>6.97875</v>
+        <v>6.978750000000001</v>
       </c>
     </row>
     <row r="2027">
@@ -16327,7 +16327,7 @@
         <v>43896.0</v>
       </c>
       <c r="B2031" s="2" t="n">
-        <v>6.92995</v>
+        <v>6.929950000000001</v>
       </c>
     </row>
     <row r="2032">
@@ -16375,7 +16375,7 @@
         <v>43906.0</v>
       </c>
       <c r="B2037" s="2" t="n">
-        <v>7.01205</v>
+        <v>7.0120499999999995</v>
       </c>
     </row>
     <row r="2038">
@@ -16383,7 +16383,7 @@
         <v>43907.0</v>
       </c>
       <c r="B2038" s="2" t="n">
-        <v>7.0309</v>
+        <v>7.030899999999999</v>
       </c>
     </row>
     <row r="2039">
@@ -16431,7 +16431,7 @@
         <v>43915.0</v>
       </c>
       <c r="B2044" s="2" t="n">
-        <v>7.12855</v>
+        <v>7.128550000000001</v>
       </c>
     </row>
     <row r="2045">
@@ -16439,7 +16439,7 @@
         <v>43916.0</v>
       </c>
       <c r="B2045" s="2" t="n">
-        <v>7.08105</v>
+        <v>7.081049999999999</v>
       </c>
     </row>
     <row r="2046">
@@ -16463,7 +16463,7 @@
         <v>43921.0</v>
       </c>
       <c r="B2048" s="2" t="n">
-        <v>7.0939</v>
+        <v>7.0939000000000005</v>
       </c>
     </row>
     <row r="2049">
@@ -16503,7 +16503,7 @@
         <v>43928.0</v>
       </c>
       <c r="B2053" s="2" t="n">
-        <v>7.06715</v>
+        <v>7.067150000000001</v>
       </c>
     </row>
     <row r="2054">
@@ -16511,7 +16511,7 @@
         <v>43929.0</v>
       </c>
       <c r="B2054" s="2" t="n">
-        <v>7.06875</v>
+        <v>7.0687500000000005</v>
       </c>
     </row>
     <row r="2055">
@@ -16519,7 +16519,7 @@
         <v>43930.0</v>
       </c>
       <c r="B2055" s="2" t="n">
-        <v>7.0599</v>
+        <v>7.059900000000001</v>
       </c>
     </row>
     <row r="2056">
@@ -16527,7 +16527,7 @@
         <v>43931.0</v>
       </c>
       <c r="B2056" s="2" t="n">
-        <v>7.04445</v>
+        <v>7.044449999999999</v>
       </c>
     </row>
     <row r="2057">
@@ -16567,7 +16567,7 @@
         <v>43938.0</v>
       </c>
       <c r="B2061" s="2" t="n">
-        <v>7.07845</v>
+        <v>7.078449999999999</v>
       </c>
     </row>
     <row r="2062">
@@ -16623,7 +16623,7 @@
         <v>43949.0</v>
       </c>
       <c r="B2068" s="2" t="n">
-        <v>7.08865</v>
+        <v>7.0886499999999995</v>
       </c>
     </row>
     <row r="2069">
@@ -16631,7 +16631,7 @@
         <v>43950.0</v>
       </c>
       <c r="B2069" s="2" t="n">
-        <v>7.0731</v>
+        <v>7.073100000000001</v>
       </c>
     </row>
     <row r="2070">
@@ -16687,7 +16687,7 @@
         <v>43959.0</v>
       </c>
       <c r="B2076" s="2" t="n">
-        <v>7.0941</v>
+        <v>7.094099999999999</v>
       </c>
     </row>
     <row r="2077">
@@ -16695,7 +16695,7 @@
         <v>43962.0</v>
       </c>
       <c r="B2077" s="2" t="n">
-        <v>7.10755</v>
+        <v>7.107550000000001</v>
       </c>
     </row>
     <row r="2078">
@@ -16703,7 +16703,7 @@
         <v>43963.0</v>
       </c>
       <c r="B2078" s="2" t="n">
-        <v>7.10805</v>
+        <v>7.1080499999999995</v>
       </c>
     </row>
     <row r="2079">
@@ -16727,7 +16727,7 @@
         <v>43966.0</v>
       </c>
       <c r="B2081" s="2" t="n">
-        <v>7.1341</v>
+        <v>7.134099999999999</v>
       </c>
     </row>
     <row r="2082">
@@ -16743,7 +16743,7 @@
         <v>43970.0</v>
       </c>
       <c r="B2083" s="2" t="n">
-        <v>7.1179</v>
+        <v>7.117900000000001</v>
       </c>
     </row>
     <row r="2084">
@@ -16759,7 +16759,7 @@
         <v>43972.0</v>
       </c>
       <c r="B2085" s="2" t="n">
-        <v>7.13355</v>
+        <v>7.1335500000000005</v>
       </c>
     </row>
     <row r="2086">
@@ -16783,7 +16783,7 @@
         <v>43977.0</v>
       </c>
       <c r="B2088" s="2" t="n">
-        <v>7.14625</v>
+        <v>7.146249999999999</v>
       </c>
     </row>
     <row r="2089">
@@ -16807,7 +16807,7 @@
         <v>43980.0</v>
       </c>
       <c r="B2091" s="2" t="n">
-        <v>7.1337</v>
+        <v>7.133699999999999</v>
       </c>
     </row>
     <row r="2092">
@@ -16815,7 +16815,7 @@
         <v>43983.0</v>
       </c>
       <c r="B2092" s="2" t="n">
-        <v>7.12605</v>
+        <v>7.126049999999999</v>
       </c>
     </row>
     <row r="2093">
@@ -16823,7 +16823,7 @@
         <v>43984.0</v>
       </c>
       <c r="B2093" s="2" t="n">
-        <v>7.1071</v>
+        <v>7.107100000000001</v>
       </c>
     </row>
     <row r="2094">
@@ -16839,7 +16839,7 @@
         <v>43986.0</v>
       </c>
       <c r="B2095" s="2" t="n">
-        <v>7.10875</v>
+        <v>7.108750000000001</v>
       </c>
     </row>
     <row r="2096">
@@ -16895,7 +16895,7 @@
         <v>43997.0</v>
       </c>
       <c r="B2102" s="2" t="n">
-        <v>7.07295</v>
+        <v>7.0729500000000005</v>
       </c>
     </row>
     <row r="2103">
@@ -16927,7 +16927,7 @@
         <v>44001.0</v>
       </c>
       <c r="B2106" s="2" t="n">
-        <v>7.0775</v>
+        <v>7.077500000000001</v>
       </c>
     </row>
     <row r="2107">
@@ -17007,7 +17007,7 @@
         <v>44015.0</v>
       </c>
       <c r="B2116" s="2" t="n">
-        <v>7.0687</v>
+        <v>7.068700000000001</v>
       </c>
     </row>
     <row r="2117">
@@ -17031,7 +17031,7 @@
         <v>44020.0</v>
       </c>
       <c r="B2119" s="2" t="n">
-        <v>6.9985</v>
+        <v>6.998499999999999</v>
       </c>
     </row>
     <row r="2120">
@@ -17039,7 +17039,7 @@
         <v>44021.0</v>
       </c>
       <c r="B2120" s="2" t="n">
-        <v>6.9969</v>
+        <v>6.996899999999999</v>
       </c>
     </row>
     <row r="2121">
@@ -17063,7 +17063,7 @@
         <v>44026.0</v>
       </c>
       <c r="B2123" s="2" t="n">
-        <v>7.01115</v>
+        <v>7.011150000000001</v>
       </c>
     </row>
     <row r="2124">
@@ -17079,7 +17079,7 @@
         <v>44028.0</v>
       </c>
       <c r="B2125" s="2" t="n">
-        <v>6.9951</v>
+        <v>6.995100000000001</v>
       </c>
     </row>
     <row r="2126">
@@ -17175,7 +17175,7 @@
         <v>44046.0</v>
       </c>
       <c r="B2137" s="2" t="n">
-        <v>6.9825</v>
+        <v>6.982499999999999</v>
       </c>
     </row>
     <row r="2138">
@@ -17215,7 +17215,7 @@
         <v>44053.0</v>
       </c>
       <c r="B2142" s="2" t="n">
-        <v>6.9607</v>
+        <v>6.960700000000001</v>
       </c>
     </row>
     <row r="2143">
@@ -17263,7 +17263,7 @@
         <v>44061.0</v>
       </c>
       <c r="B2148" s="2" t="n">
-        <v>6.9061</v>
+        <v>6.9060999999999995</v>
       </c>
     </row>
     <row r="2149">
@@ -17279,7 +17279,7 @@
         <v>44063.0</v>
       </c>
       <c r="B2150" s="2" t="n">
-        <v>6.9065</v>
+        <v>6.906499999999999</v>
       </c>
     </row>
     <row r="2151">
@@ -17303,7 +17303,7 @@
         <v>44068.0</v>
       </c>
       <c r="B2153" s="2" t="n">
-        <v>6.9043</v>
+        <v>6.904300000000001</v>
       </c>
     </row>
     <row r="2154">
@@ -17335,7 +17335,7 @@
         <v>44074.0</v>
       </c>
       <c r="B2157" s="2" t="n">
-        <v>6.84785</v>
+        <v>6.847849999999999</v>
       </c>
     </row>
     <row r="2158">
@@ -17415,7 +17415,7 @@
         <v>44088.0</v>
       </c>
       <c r="B2167" s="2" t="n">
-        <v>6.8085</v>
+        <v>6.8084999999999996</v>
       </c>
     </row>
     <row r="2168">
@@ -17455,7 +17455,7 @@
         <v>44095.0</v>
       </c>
       <c r="B2172" s="2" t="n">
-        <v>6.79275</v>
+        <v>6.792750000000001</v>
       </c>
     </row>
     <row r="2173">
@@ -17479,7 +17479,7 @@
         <v>44098.0</v>
       </c>
       <c r="B2175" s="2" t="n">
-        <v>6.8269</v>
+        <v>6.826899999999999</v>
       </c>
     </row>
     <row r="2176">
@@ -17487,7 +17487,7 @@
         <v>44099.0</v>
       </c>
       <c r="B2176" s="2" t="n">
-        <v>6.82335</v>
+        <v>6.8233500000000005</v>
       </c>
     </row>
     <row r="2177">
@@ -17503,7 +17503,7 @@
         <v>44103.0</v>
       </c>
       <c r="B2178" s="2" t="n">
-        <v>6.8163</v>
+        <v>6.816300000000001</v>
       </c>
     </row>
     <row r="2179">
@@ -17511,7 +17511,7 @@
         <v>44104.0</v>
       </c>
       <c r="B2179" s="2" t="n">
-        <v>6.7845</v>
+        <v>6.7844999999999995</v>
       </c>
     </row>
     <row r="2180">
@@ -17551,7 +17551,7 @@
         <v>44111.0</v>
       </c>
       <c r="B2184" s="2" t="n">
-        <v>6.7355</v>
+        <v>6.735500000000001</v>
       </c>
     </row>
     <row r="2185">
@@ -17559,7 +17559,7 @@
         <v>44112.0</v>
       </c>
       <c r="B2185" s="2" t="n">
-        <v>6.73875</v>
+        <v>6.7387500000000005</v>
       </c>
     </row>
     <row r="2186">
@@ -17591,7 +17591,7 @@
         <v>44118.0</v>
       </c>
       <c r="B2189" s="2" t="n">
-        <v>6.7133</v>
+        <v>6.713299999999999</v>
       </c>
     </row>
     <row r="2190">
@@ -17599,7 +17599,7 @@
         <v>44119.0</v>
       </c>
       <c r="B2190" s="2" t="n">
-        <v>6.7127</v>
+        <v>6.712700000000001</v>
       </c>
     </row>
     <row r="2191">
@@ -17607,7 +17607,7 @@
         <v>44120.0</v>
       </c>
       <c r="B2191" s="2" t="n">
-        <v>6.6965</v>
+        <v>6.6964999999999995</v>
       </c>
     </row>
     <row r="2192">
@@ -17615,7 +17615,7 @@
         <v>44123.0</v>
       </c>
       <c r="B2192" s="2" t="n">
-        <v>6.6791</v>
+        <v>6.679100000000001</v>
       </c>
     </row>
     <row r="2193">
@@ -17623,7 +17623,7 @@
         <v>44124.0</v>
       </c>
       <c r="B2193" s="2" t="n">
-        <v>6.6641</v>
+        <v>6.6640999999999995</v>
       </c>
     </row>
     <row r="2194">
@@ -17639,7 +17639,7 @@
         <v>44126.0</v>
       </c>
       <c r="B2195" s="2" t="n">
-        <v>6.6711</v>
+        <v>6.671100000000001</v>
       </c>
     </row>
     <row r="2196">
@@ -17671,7 +17671,7 @@
         <v>44132.0</v>
       </c>
       <c r="B2199" s="2" t="n">
-        <v>6.72835</v>
+        <v>6.728350000000001</v>
       </c>
     </row>
     <row r="2200">
@@ -17695,7 +17695,7 @@
         <v>44137.0</v>
       </c>
       <c r="B2202" s="2" t="n">
-        <v>6.6879</v>
+        <v>6.687900000000001</v>
       </c>
     </row>
     <row r="2203">
@@ -17703,7 +17703,7 @@
         <v>44138.0</v>
       </c>
       <c r="B2203" s="2" t="n">
-        <v>6.6803</v>
+        <v>6.680300000000001</v>
       </c>
     </row>
     <row r="2204">
@@ -17711,7 +17711,7 @@
         <v>44139.0</v>
       </c>
       <c r="B2204" s="2" t="n">
-        <v>6.62135</v>
+        <v>6.6213500000000005</v>
       </c>
     </row>
     <row r="2205">
@@ -17735,7 +17735,7 @@
         <v>44144.0</v>
       </c>
       <c r="B2207" s="2" t="n">
-        <v>6.6159</v>
+        <v>6.615900000000001</v>
       </c>
     </row>
     <row r="2208">
@@ -17751,7 +17751,7 @@
         <v>44146.0</v>
       </c>
       <c r="B2209" s="2" t="n">
-        <v>6.6185</v>
+        <v>6.618499999999999</v>
       </c>
     </row>
     <row r="2210">
@@ -17759,7 +17759,7 @@
         <v>44147.0</v>
       </c>
       <c r="B2210" s="2" t="n">
-        <v>6.61725</v>
+        <v>6.617249999999999</v>
       </c>
     </row>
     <row r="2211">
@@ -17767,7 +17767,7 @@
         <v>44148.0</v>
       </c>
       <c r="B2211" s="2" t="n">
-        <v>6.5939</v>
+        <v>6.5939000000000005</v>
       </c>
     </row>
     <row r="2212">
@@ -17791,7 +17791,7 @@
         <v>44153.0</v>
       </c>
       <c r="B2214" s="2" t="n">
-        <v>6.56255</v>
+        <v>6.562550000000001</v>
       </c>
     </row>
     <row r="2215">
@@ -17815,7 +17815,7 @@
         <v>44158.0</v>
       </c>
       <c r="B2217" s="2" t="n">
-        <v>6.58225</v>
+        <v>6.582249999999999</v>
       </c>
     </row>
     <row r="2218">
@@ -17839,7 +17839,7 @@
         <v>44161.0</v>
       </c>
       <c r="B2220" s="2" t="n">
-        <v>6.56965</v>
+        <v>6.569649999999999</v>
       </c>
     </row>
     <row r="2221">
@@ -17847,7 +17847,7 @@
         <v>44162.0</v>
       </c>
       <c r="B2221" s="2" t="n">
-        <v>6.5753</v>
+        <v>6.5752999999999995</v>
       </c>
     </row>
     <row r="2222">
@@ -17871,7 +17871,7 @@
         <v>44167.0</v>
       </c>
       <c r="B2224" s="2" t="n">
-        <v>6.5425</v>
+        <v>6.5424999999999995</v>
       </c>
     </row>
     <row r="2225">
@@ -17887,7 +17887,7 @@
         <v>44169.0</v>
       </c>
       <c r="B2226" s="2" t="n">
-        <v>6.51695</v>
+        <v>6.5169500000000005</v>
       </c>
     </row>
     <row r="2227">
@@ -17951,7 +17951,7 @@
         <v>44181.0</v>
       </c>
       <c r="B2234" s="2" t="n">
-        <v>6.5127</v>
+        <v>6.512700000000001</v>
       </c>
     </row>
     <row r="2235">
@@ -17967,7 +17967,7 @@
         <v>44183.0</v>
       </c>
       <c r="B2236" s="2" t="n">
-        <v>6.5189</v>
+        <v>6.5188999999999995</v>
       </c>
     </row>
     <row r="2237">
@@ -17999,7 +17999,7 @@
         <v>44189.0</v>
       </c>
       <c r="B2240" s="2" t="n">
-        <v>6.5189</v>
+        <v>6.5188999999999995</v>
       </c>
     </row>
     <row r="2241">
@@ -18047,7 +18047,7 @@
         <v>44200.0</v>
       </c>
       <c r="B2246" s="2" t="n">
-        <v>6.4549</v>
+        <v>6.454899999999999</v>
       </c>
     </row>
     <row r="2247">
@@ -18079,7 +18079,7 @@
         <v>44204.0</v>
       </c>
       <c r="B2250" s="2" t="n">
-        <v>6.46485</v>
+        <v>6.464849999999999</v>
       </c>
     </row>
     <row r="2251">
@@ -18087,7 +18087,7 @@
         <v>44207.0</v>
       </c>
       <c r="B2251" s="2" t="n">
-        <v>6.47925</v>
+        <v>6.4792499999999995</v>
       </c>
     </row>
     <row r="2252">
@@ -18111,7 +18111,7 @@
         <v>44210.0</v>
       </c>
       <c r="B2254" s="2" t="n">
-        <v>6.46485</v>
+        <v>6.464849999999999</v>
       </c>
     </row>
     <row r="2255">
@@ -18135,7 +18135,7 @@
         <v>44215.0</v>
       </c>
       <c r="B2257" s="2" t="n">
-        <v>6.48125</v>
+        <v>6.481249999999999</v>
       </c>
     </row>
     <row r="2258">
@@ -18143,7 +18143,7 @@
         <v>44216.0</v>
       </c>
       <c r="B2258" s="2" t="n">
-        <v>6.46235</v>
+        <v>6.462350000000001</v>
       </c>
     </row>
     <row r="2259">
@@ -18175,7 +18175,7 @@
         <v>44222.0</v>
       </c>
       <c r="B2262" s="2" t="n">
-        <v>6.4727</v>
+        <v>6.472700000000001</v>
       </c>
     </row>
     <row r="2263">
@@ -18183,7 +18183,7 @@
         <v>44223.0</v>
       </c>
       <c r="B2263" s="2" t="n">
-        <v>6.49725</v>
+        <v>6.497249999999999</v>
       </c>
     </row>
     <row r="2264">
@@ -18199,7 +18199,7 @@
         <v>44225.0</v>
       </c>
       <c r="B2265" s="2" t="n">
-        <v>6.44885</v>
+        <v>6.448849999999999</v>
       </c>
     </row>
     <row r="2266">
@@ -18207,7 +18207,7 @@
         <v>44228.0</v>
       </c>
       <c r="B2266" s="2" t="n">
-        <v>6.47535</v>
+        <v>6.475350000000001</v>
       </c>
     </row>
     <row r="2267">
@@ -18215,7 +18215,7 @@
         <v>44229.0</v>
       </c>
       <c r="B2267" s="2" t="n">
-        <v>6.4577</v>
+        <v>6.457699999999999</v>
       </c>
     </row>
     <row r="2268">
@@ -18223,7 +18223,7 @@
         <v>44230.0</v>
       </c>
       <c r="B2268" s="2" t="n">
-        <v>6.4581</v>
+        <v>6.458099999999999</v>
       </c>
     </row>
     <row r="2269">
@@ -18231,7 +18231,7 @@
         <v>44231.0</v>
       </c>
       <c r="B2269" s="2" t="n">
-        <v>6.4729</v>
+        <v>6.472899999999999</v>
       </c>
     </row>
     <row r="2270">
@@ -18239,7 +18239,7 @@
         <v>44232.0</v>
       </c>
       <c r="B2270" s="2" t="n">
-        <v>6.4589</v>
+        <v>6.458899999999999</v>
       </c>
     </row>
     <row r="2271">
@@ -18319,7 +18319,7 @@
         <v>44246.0</v>
       </c>
       <c r="B2280" s="2" t="n">
-        <v>6.45935</v>
+        <v>6.459350000000001</v>
       </c>
     </row>
     <row r="2281">
@@ -18343,7 +18343,7 @@
         <v>44251.0</v>
       </c>
       <c r="B2283" s="2" t="n">
-        <v>6.4477</v>
+        <v>6.447699999999999</v>
       </c>
     </row>
     <row r="2284">
@@ -18359,7 +18359,7 @@
         <v>44253.0</v>
       </c>
       <c r="B2285" s="2" t="n">
-        <v>6.48125</v>
+        <v>6.481249999999999</v>
       </c>
     </row>
     <row r="2286">
@@ -18375,7 +18375,7 @@
         <v>44257.0</v>
       </c>
       <c r="B2287" s="2" t="n">
-        <v>6.4749</v>
+        <v>6.474899999999999</v>
       </c>
     </row>
     <row r="2288">
@@ -18399,7 +18399,7 @@
         <v>44260.0</v>
       </c>
       <c r="B2290" s="2" t="n">
-        <v>6.51705</v>
+        <v>6.517049999999999</v>
       </c>
     </row>
     <row r="2291">
@@ -18415,7 +18415,7 @@
         <v>44264.0</v>
       </c>
       <c r="B2292" s="2" t="n">
-        <v>6.51925</v>
+        <v>6.5192499999999995</v>
       </c>
     </row>
     <row r="2293">
@@ -18423,7 +18423,7 @@
         <v>44265.0</v>
       </c>
       <c r="B2293" s="2" t="n">
-        <v>6.49475</v>
+        <v>6.494750000000001</v>
       </c>
     </row>
     <row r="2294">
@@ -18447,7 +18447,7 @@
         <v>44270.0</v>
       </c>
       <c r="B2296" s="2" t="n">
-        <v>6.4979</v>
+        <v>6.4979000000000005</v>
       </c>
     </row>
     <row r="2297">
@@ -18487,7 +18487,7 @@
         <v>44277.0</v>
       </c>
       <c r="B2301" s="2" t="n">
-        <v>6.50735</v>
+        <v>6.507350000000001</v>
       </c>
     </row>
     <row r="2302">
@@ -18503,7 +18503,7 @@
         <v>44279.0</v>
       </c>
       <c r="B2303" s="2" t="n">
-        <v>6.52925</v>
+        <v>6.529249999999999</v>
       </c>
     </row>
     <row r="2304">
@@ -18511,7 +18511,7 @@
         <v>44280.0</v>
       </c>
       <c r="B2304" s="2" t="n">
-        <v>6.54825</v>
+        <v>6.5482499999999995</v>
       </c>
     </row>
     <row r="2305">
@@ -18551,7 +18551,7 @@
         <v>44287.0</v>
       </c>
       <c r="B2309" s="2" t="n">
-        <v>6.5753</v>
+        <v>6.5752999999999995</v>
       </c>
     </row>
     <row r="2310">
@@ -18567,7 +18567,7 @@
         <v>44291.0</v>
       </c>
       <c r="B2311" s="2" t="n">
-        <v>6.5567</v>
+        <v>6.556700000000001</v>
       </c>
     </row>
     <row r="2312">
@@ -18591,7 +18591,7 @@
         <v>44294.0</v>
       </c>
       <c r="B2314" s="2" t="n">
-        <v>6.55655</v>
+        <v>6.5565500000000005</v>
       </c>
     </row>
     <row r="2315">
@@ -18647,7 +18647,7 @@
         <v>44305.0</v>
       </c>
       <c r="B2321" s="2" t="n">
-        <v>6.50905</v>
+        <v>6.509049999999999</v>
       </c>
     </row>
     <row r="2322">
@@ -18671,7 +18671,7 @@
         <v>44308.0</v>
       </c>
       <c r="B2324" s="2" t="n">
-        <v>6.4947</v>
+        <v>6.494700000000001</v>
       </c>
     </row>
     <row r="2325">
@@ -18679,7 +18679,7 @@
         <v>44309.0</v>
       </c>
       <c r="B2325" s="2" t="n">
-        <v>6.4897</v>
+        <v>6.489699999999999</v>
       </c>
     </row>
     <row r="2326">
@@ -18687,7 +18687,7 @@
         <v>44312.0</v>
       </c>
       <c r="B2326" s="2" t="n">
-        <v>6.4725</v>
+        <v>6.472499999999999</v>
       </c>
     </row>
     <row r="2327">
@@ -18719,7 +18719,7 @@
         <v>44316.0</v>
       </c>
       <c r="B2330" s="2" t="n">
-        <v>6.47415</v>
+        <v>6.474150000000001</v>
       </c>
     </row>
     <row r="2331">
@@ -18727,7 +18727,7 @@
         <v>44319.0</v>
       </c>
       <c r="B2331" s="2" t="n">
-        <v>6.4703</v>
+        <v>6.470300000000001</v>
       </c>
     </row>
     <row r="2332">
@@ -18735,7 +18735,7 @@
         <v>44320.0</v>
       </c>
       <c r="B2332" s="2" t="n">
-        <v>6.48375</v>
+        <v>6.483750000000001</v>
       </c>
     </row>
     <row r="2333">
@@ -18751,7 +18751,7 @@
         <v>44322.0</v>
       </c>
       <c r="B2334" s="2" t="n">
-        <v>6.46445</v>
+        <v>6.464449999999999</v>
       </c>
     </row>
     <row r="2335">
@@ -18759,7 +18759,7 @@
         <v>44323.0</v>
       </c>
       <c r="B2335" s="2" t="n">
-        <v>6.4159</v>
+        <v>6.415900000000001</v>
       </c>
     </row>
     <row r="2336">
@@ -18815,7 +18815,7 @@
         <v>44334.0</v>
       </c>
       <c r="B2342" s="2" t="n">
-        <v>6.42325</v>
+        <v>6.4232499999999995</v>
       </c>
     </row>
     <row r="2343">
@@ -18831,7 +18831,7 @@
         <v>44336.0</v>
       </c>
       <c r="B2344" s="2" t="n">
-        <v>6.43165</v>
+        <v>6.431649999999999</v>
       </c>
     </row>
     <row r="2345">
@@ -18839,7 +18839,7 @@
         <v>44337.0</v>
       </c>
       <c r="B2345" s="2" t="n">
-        <v>6.43535</v>
+        <v>6.435350000000001</v>
       </c>
     </row>
     <row r="2346">
@@ -18855,7 +18855,7 @@
         <v>44341.0</v>
       </c>
       <c r="B2347" s="2" t="n">
-        <v>6.41215</v>
+        <v>6.4121500000000005</v>
       </c>
     </row>
     <row r="2348">
@@ -18871,7 +18871,7 @@
         <v>44343.0</v>
       </c>
       <c r="B2349" s="2" t="n">
-        <v>6.37145</v>
+        <v>6.371449999999999</v>
       </c>
     </row>
     <row r="2350">
@@ -18911,7 +18911,7 @@
         <v>44350.0</v>
       </c>
       <c r="B2354" s="2" t="n">
-        <v>6.39965</v>
+        <v>6.399649999999999</v>
       </c>
     </row>
     <row r="2355">
@@ -18935,7 +18935,7 @@
         <v>44355.0</v>
       </c>
       <c r="B2357" s="2" t="n">
-        <v>6.4003</v>
+        <v>6.4003000000000005</v>
       </c>
     </row>
     <row r="2358">
@@ -18959,7 +18959,7 @@
         <v>44358.0</v>
       </c>
       <c r="B2360" s="2" t="n">
-        <v>6.3963</v>
+        <v>6.396300000000001</v>
       </c>
     </row>
     <row r="2361">
@@ -18967,7 +18967,7 @@
         <v>44361.0</v>
       </c>
       <c r="B2361" s="2" t="n">
-        <v>6.40595</v>
+        <v>6.405950000000001</v>
       </c>
     </row>
     <row r="2362">
@@ -18983,7 +18983,7 @@
         <v>44363.0</v>
       </c>
       <c r="B2363" s="2" t="n">
-        <v>6.4397</v>
+        <v>6.439699999999999</v>
       </c>
     </row>
     <row r="2364">
@@ -18999,7 +18999,7 @@
         <v>44365.0</v>
       </c>
       <c r="B2365" s="2" t="n">
-        <v>6.4633</v>
+        <v>6.463299999999999</v>
       </c>
     </row>
     <row r="2366">
@@ -19031,7 +19031,7 @@
         <v>44371.0</v>
       </c>
       <c r="B2369" s="2" t="n">
-        <v>6.47075</v>
+        <v>6.470750000000001</v>
       </c>
     </row>
     <row r="2370">
@@ -19039,7 +19039,7 @@
         <v>44372.0</v>
       </c>
       <c r="B2370" s="2" t="n">
-        <v>6.4615</v>
+        <v>6.461500000000001</v>
       </c>
     </row>
     <row r="2371">
@@ -19055,7 +19055,7 @@
         <v>44376.0</v>
       </c>
       <c r="B2372" s="2" t="n">
-        <v>6.46525</v>
+        <v>6.465249999999999</v>
       </c>
     </row>
     <row r="2373">
@@ -19063,7 +19063,7 @@
         <v>44377.0</v>
       </c>
       <c r="B2373" s="2" t="n">
-        <v>6.46785</v>
+        <v>6.467849999999999</v>
       </c>
     </row>
     <row r="2374">
@@ -19071,7 +19071,7 @@
         <v>44378.0</v>
       </c>
       <c r="B2374" s="2" t="n">
-        <v>6.47285</v>
+        <v>6.472849999999999</v>
       </c>
     </row>
     <row r="2375">
@@ -19087,7 +19087,7 @@
         <v>44382.0</v>
       </c>
       <c r="B2376" s="2" t="n">
-        <v>6.46235</v>
+        <v>6.462350000000001</v>
       </c>
     </row>
     <row r="2377">
@@ -19103,7 +19103,7 @@
         <v>44384.0</v>
       </c>
       <c r="B2378" s="2" t="n">
-        <v>6.47455</v>
+        <v>6.474550000000001</v>
       </c>
     </row>
     <row r="2379">
@@ -19119,7 +19119,7 @@
         <v>44386.0</v>
       </c>
       <c r="B2380" s="2" t="n">
-        <v>6.47875</v>
+        <v>6.478750000000001</v>
       </c>
     </row>
     <row r="2381">
@@ -19151,7 +19151,7 @@
         <v>44392.0</v>
       </c>
       <c r="B2384" s="2" t="n">
-        <v>6.4611</v>
+        <v>6.461100000000001</v>
       </c>
     </row>
     <row r="2385">
@@ -19215,7 +19215,7 @@
         <v>44404.0</v>
       </c>
       <c r="B2392" s="2" t="n">
-        <v>6.52805</v>
+        <v>6.5280499999999995</v>
       </c>
     </row>
     <row r="2393">
@@ -19239,7 +19239,7 @@
         <v>44407.0</v>
       </c>
       <c r="B2395" s="2" t="n">
-        <v>6.4627</v>
+        <v>6.462700000000001</v>
       </c>
     </row>
     <row r="2396">
@@ -19263,7 +19263,7 @@
         <v>44412.0</v>
       </c>
       <c r="B2398" s="2" t="n">
-        <v>6.46235</v>
+        <v>6.462350000000001</v>
       </c>
     </row>
     <row r="2399">
@@ -19271,7 +19271,7 @@
         <v>44413.0</v>
       </c>
       <c r="B2399" s="2" t="n">
-        <v>6.4625</v>
+        <v>6.4624999999999995</v>
       </c>
     </row>
     <row r="2400">
@@ -19287,7 +19287,7 @@
         <v>44417.0</v>
       </c>
       <c r="B2401" s="2" t="n">
-        <v>6.4873</v>
+        <v>6.487299999999999</v>
       </c>
     </row>
     <row r="2402">
@@ -19303,7 +19303,7 @@
         <v>44419.0</v>
       </c>
       <c r="B2403" s="2" t="n">
-        <v>6.47615</v>
+        <v>6.4761500000000005</v>
       </c>
     </row>
     <row r="2404">
@@ -19399,7 +19399,7 @@
         <v>44435.0</v>
       </c>
       <c r="B2415" s="2" t="n">
-        <v>6.4627</v>
+        <v>6.462700000000001</v>
       </c>
     </row>
     <row r="2416">
@@ -19431,7 +19431,7 @@
         <v>44441.0</v>
       </c>
       <c r="B2419" s="2" t="n">
-        <v>6.4483</v>
+        <v>6.448300000000001</v>
       </c>
     </row>
     <row r="2420">
@@ -19447,7 +19447,7 @@
         <v>44445.0</v>
       </c>
       <c r="B2421" s="2" t="n">
-        <v>6.45095</v>
+        <v>6.450950000000001</v>
       </c>
     </row>
     <row r="2422">
@@ -19455,7 +19455,7 @@
         <v>44446.0</v>
       </c>
       <c r="B2422" s="2" t="n">
-        <v>6.4615</v>
+        <v>6.461500000000001</v>
       </c>
     </row>
     <row r="2423">
@@ -19471,7 +19471,7 @@
         <v>44448.0</v>
       </c>
       <c r="B2424" s="2" t="n">
-        <v>6.4509</v>
+        <v>6.450899999999999</v>
       </c>
     </row>
     <row r="2425">
@@ -19519,7 +19519,7 @@
         <v>44456.0</v>
       </c>
       <c r="B2430" s="2" t="n">
-        <v>6.4725</v>
+        <v>6.472499999999999</v>
       </c>
     </row>
     <row r="2431">
@@ -19527,7 +19527,7 @@
         <v>44459.0</v>
       </c>
       <c r="B2431" s="2" t="n">
-        <v>6.48345</v>
+        <v>6.4834499999999995</v>
       </c>
     </row>
     <row r="2432">
@@ -19559,7 +19559,7 @@
         <v>44463.0</v>
       </c>
       <c r="B2435" s="2" t="n">
-        <v>6.4615</v>
+        <v>6.461500000000001</v>
       </c>
     </row>
     <row r="2436">
@@ -19591,7 +19591,7 @@
         <v>44469.0</v>
       </c>
       <c r="B2439" s="2" t="n">
-        <v>6.4491</v>
+        <v>6.4491000000000005</v>
       </c>
     </row>
     <row r="2440">
@@ -19615,7 +19615,7 @@
         <v>44474.0</v>
       </c>
       <c r="B2442" s="2" t="n">
-        <v>6.44925</v>
+        <v>6.449249999999999</v>
       </c>
     </row>
     <row r="2443">
@@ -19631,7 +19631,7 @@
         <v>44476.0</v>
       </c>
       <c r="B2444" s="2" t="n">
-        <v>6.45265</v>
+        <v>6.452649999999999</v>
       </c>
     </row>
     <row r="2445">
@@ -19655,7 +19655,7 @@
         <v>44481.0</v>
       </c>
       <c r="B2447" s="2" t="n">
-        <v>6.45565</v>
+        <v>6.4556499999999994</v>
       </c>
     </row>
     <row r="2448">
@@ -19695,7 +19695,7 @@
         <v>44488.0</v>
       </c>
       <c r="B2452" s="2" t="n">
-        <v>6.37645</v>
+        <v>6.376449999999999</v>
       </c>
     </row>
     <row r="2453">
@@ -19735,7 +19735,7 @@
         <v>44495.0</v>
       </c>
       <c r="B2457" s="2" t="n">
-        <v>6.37825</v>
+        <v>6.3782499999999995</v>
       </c>
     </row>
     <row r="2458">
@@ -19759,7 +19759,7 @@
         <v>44498.0</v>
       </c>
       <c r="B2460" s="2" t="n">
-        <v>6.4057</v>
+        <v>6.4056999999999995</v>
       </c>
     </row>
     <row r="2461">
@@ -19807,7 +19807,7 @@
         <v>44508.0</v>
       </c>
       <c r="B2466" s="2" t="n">
-        <v>6.3891</v>
+        <v>6.389100000000001</v>
       </c>
     </row>
     <row r="2467">
@@ -19823,7 +19823,7 @@
         <v>44510.0</v>
       </c>
       <c r="B2468" s="2" t="n">
-        <v>6.39915</v>
+        <v>6.399150000000001</v>
       </c>
     </row>
     <row r="2469">
@@ -19831,7 +19831,7 @@
         <v>44511.0</v>
       </c>
       <c r="B2469" s="2" t="n">
-        <v>6.3915</v>
+        <v>6.391500000000001</v>
       </c>
     </row>
     <row r="2470">
@@ -19855,7 +19855,7 @@
         <v>44516.0</v>
       </c>
       <c r="B2472" s="2" t="n">
-        <v>6.39085</v>
+        <v>6.3908499999999995</v>
       </c>
     </row>
     <row r="2473">
@@ -19871,7 +19871,7 @@
         <v>44518.0</v>
       </c>
       <c r="B2474" s="2" t="n">
-        <v>6.3811</v>
+        <v>6.381100000000001</v>
       </c>
     </row>
     <row r="2475">
@@ -19895,7 +19895,7 @@
         <v>44523.0</v>
       </c>
       <c r="B2477" s="2" t="n">
-        <v>6.3907</v>
+        <v>6.390700000000001</v>
       </c>
     </row>
     <row r="2478">
@@ -19911,7 +19911,7 @@
         <v>44525.0</v>
       </c>
       <c r="B2479" s="2" t="n">
-        <v>6.38775</v>
+        <v>6.3877500000000005</v>
       </c>
     </row>
     <row r="2480">
@@ -19943,7 +19943,7 @@
         <v>44531.0</v>
       </c>
       <c r="B2483" s="2" t="n">
-        <v>6.37315</v>
+        <v>6.373150000000001</v>
       </c>
     </row>
     <row r="2484">
@@ -19959,7 +19959,7 @@
         <v>44533.0</v>
       </c>
       <c r="B2485" s="2" t="n">
-        <v>6.3733</v>
+        <v>6.3732999999999995</v>
       </c>
     </row>
     <row r="2486">
@@ -19975,7 +19975,7 @@
         <v>44537.0</v>
       </c>
       <c r="B2487" s="2" t="n">
-        <v>6.36375</v>
+        <v>6.3637500000000005</v>
       </c>
     </row>
     <row r="2488">
@@ -19983,7 +19983,7 @@
         <v>44538.0</v>
       </c>
       <c r="B2488" s="2" t="n">
-        <v>6.34575</v>
+        <v>6.345750000000001</v>
       </c>
     </row>
     <row r="2489">
@@ -19999,7 +19999,7 @@
         <v>44540.0</v>
       </c>
       <c r="B2490" s="2" t="n">
-        <v>6.37645</v>
+        <v>6.376449999999999</v>
       </c>
     </row>
     <row r="2491">
@@ -20007,7 +20007,7 @@
         <v>44543.0</v>
       </c>
       <c r="B2491" s="2" t="n">
-        <v>6.3755</v>
+        <v>6.375500000000001</v>
       </c>
     </row>
     <row r="2492">
@@ -20031,7 +20031,7 @@
         <v>44546.0</v>
       </c>
       <c r="B2494" s="2" t="n">
-        <v>6.38065</v>
+        <v>6.380649999999999</v>
       </c>
     </row>
     <row r="2495">
@@ -20087,7 +20087,7 @@
         <v>44557.0</v>
       </c>
       <c r="B2501" s="2" t="n">
-        <v>6.3753</v>
+        <v>6.375299999999999</v>
       </c>
     </row>
     <row r="2502">
@@ -20095,7 +20095,7 @@
         <v>44558.0</v>
       </c>
       <c r="B2502" s="2" t="n">
-        <v>6.37475</v>
+        <v>6.374750000000001</v>
       </c>
     </row>
     <row r="2503">
@@ -20103,7 +20103,7 @@
         <v>44559.0</v>
       </c>
       <c r="B2503" s="2" t="n">
-        <v>6.37015</v>
+        <v>6.370150000000001</v>
       </c>
     </row>
     <row r="2504">
@@ -20159,7 +20159,7 @@
         <v>44568.0</v>
       </c>
       <c r="B2510" s="2" t="n">
-        <v>6.3829</v>
+        <v>6.382899999999999</v>
       </c>
     </row>
     <row r="2511">
@@ -20223,7 +20223,7 @@
         <v>44580.0</v>
       </c>
       <c r="B2518" s="2" t="n">
-        <v>6.35115</v>
+        <v>6.3511500000000005</v>
       </c>
     </row>
     <row r="2519">
@@ -20255,7 +20255,7 @@
         <v>44586.0</v>
       </c>
       <c r="B2522" s="2" t="n">
-        <v>6.3311</v>
+        <v>6.331100000000001</v>
       </c>
     </row>
     <row r="2523">
@@ -20263,7 +20263,7 @@
         <v>44587.0</v>
       </c>
       <c r="B2523" s="2" t="n">
-        <v>6.3351</v>
+        <v>6.335100000000001</v>
       </c>
     </row>
     <row r="2524">
@@ -20271,7 +20271,7 @@
         <v>44588.0</v>
       </c>
       <c r="B2524" s="2" t="n">
-        <v>6.3685</v>
+        <v>6.368499999999999</v>
       </c>
     </row>
     <row r="2525">
@@ -20279,7 +20279,7 @@
         <v>44589.0</v>
       </c>
       <c r="B2525" s="2" t="n">
-        <v>6.37095</v>
+        <v>6.370950000000001</v>
       </c>
     </row>
     <row r="2526">
@@ -20287,7 +20287,7 @@
         <v>44592.0</v>
       </c>
       <c r="B2526" s="2" t="n">
-        <v>6.37095</v>
+        <v>6.370950000000001</v>
       </c>
     </row>
     <row r="2527">
@@ -20335,7 +20335,7 @@
         <v>44600.0</v>
       </c>
       <c r="B2532" s="2" t="n">
-        <v>6.36635</v>
+        <v>6.366350000000001</v>
       </c>
     </row>
     <row r="2533">
@@ -20375,7 +20375,7 @@
         <v>44607.0</v>
       </c>
       <c r="B2537" s="2" t="n">
-        <v>6.3381</v>
+        <v>6.338099999999999</v>
       </c>
     </row>
     <row r="2538">
@@ -20391,7 +20391,7 @@
         <v>44609.0</v>
       </c>
       <c r="B2539" s="2" t="n">
-        <v>6.33405</v>
+        <v>6.3340499999999995</v>
       </c>
     </row>
     <row r="2540">
@@ -20423,7 +20423,7 @@
         <v>44615.0</v>
       </c>
       <c r="B2543" s="2" t="n">
-        <v>6.31245</v>
+        <v>6.312449999999999</v>
       </c>
     </row>
     <row r="2544">
@@ -20439,7 +20439,7 @@
         <v>44617.0</v>
       </c>
       <c r="B2545" s="2" t="n">
-        <v>6.3109</v>
+        <v>6.310899999999999</v>
       </c>
     </row>
     <row r="2546">
@@ -20447,7 +20447,7 @@
         <v>44620.0</v>
       </c>
       <c r="B2546" s="2" t="n">
-        <v>6.31335</v>
+        <v>6.313350000000001</v>
       </c>
     </row>
     <row r="2547">
@@ -20455,7 +20455,7 @@
         <v>44621.0</v>
       </c>
       <c r="B2547" s="2" t="n">
-        <v>6.31805</v>
+        <v>6.3180499999999995</v>
       </c>
     </row>
     <row r="2548">
@@ -20487,7 +20487,7 @@
         <v>44627.0</v>
       </c>
       <c r="B2551" s="2" t="n">
-        <v>6.3257</v>
+        <v>6.325699999999999</v>
       </c>
     </row>
     <row r="2552">
@@ -20495,7 +20495,7 @@
         <v>44628.0</v>
       </c>
       <c r="B2552" s="2" t="n">
-        <v>6.3253</v>
+        <v>6.3252999999999995</v>
       </c>
     </row>
     <row r="2553">
@@ -20511,7 +20511,7 @@
         <v>44630.0</v>
       </c>
       <c r="B2554" s="2" t="n">
-        <v>6.3283</v>
+        <v>6.3283000000000005</v>
       </c>
     </row>
     <row r="2555">
@@ -20535,7 +20535,7 @@
         <v>44635.0</v>
       </c>
       <c r="B2557" s="2" t="n">
-        <v>6.38155</v>
+        <v>6.381550000000001</v>
       </c>
     </row>
     <row r="2558">
@@ -20559,7 +20559,7 @@
         <v>44638.0</v>
       </c>
       <c r="B2560" s="2" t="n">
-        <v>6.3671</v>
+        <v>6.367100000000001</v>
       </c>
     </row>
     <row r="2561">
@@ -20599,7 +20599,7 @@
         <v>44645.0</v>
       </c>
       <c r="B2565" s="2" t="n">
-        <v>6.38365</v>
+        <v>6.383649999999999</v>
       </c>
     </row>
     <row r="2566">
@@ -20615,7 +20615,7 @@
         <v>44649.0</v>
       </c>
       <c r="B2567" s="2" t="n">
-        <v>6.37405</v>
+        <v>6.3740499999999995</v>
       </c>
     </row>
     <row r="2568">
@@ -20623,7 +20623,7 @@
         <v>44650.0</v>
       </c>
       <c r="B2568" s="2" t="n">
-        <v>6.3597</v>
+        <v>6.359699999999999</v>
       </c>
     </row>
     <row r="2569">
@@ -20647,7 +20647,7 @@
         <v>44655.0</v>
       </c>
       <c r="B2571" s="2" t="n">
-        <v>6.3745</v>
+        <v>6.374499999999999</v>
       </c>
     </row>
     <row r="2572">
@@ -20679,7 +20679,7 @@
         <v>44659.0</v>
       </c>
       <c r="B2575" s="2" t="n">
-        <v>6.36885</v>
+        <v>6.368849999999999</v>
       </c>
     </row>
     <row r="2576">
@@ -20695,7 +20695,7 @@
         <v>44663.0</v>
       </c>
       <c r="B2577" s="2" t="n">
-        <v>6.3767</v>
+        <v>6.3767000000000005</v>
       </c>
     </row>
     <row r="2578">
@@ -20719,7 +20719,7 @@
         <v>44666.0</v>
       </c>
       <c r="B2580" s="2" t="n">
-        <v>6.38155</v>
+        <v>6.381550000000001</v>
       </c>
     </row>
     <row r="2581">
@@ -20751,7 +20751,7 @@
         <v>44672.0</v>
       </c>
       <c r="B2584" s="2" t="n">
-        <v>6.48035</v>
+        <v>6.4803500000000005</v>
       </c>
     </row>
     <row r="2585">
@@ -20823,7 +20823,7 @@
         <v>44685.0</v>
       </c>
       <c r="B2593" s="2" t="n">
-        <v>6.61935</v>
+        <v>6.619350000000001</v>
       </c>
     </row>
     <row r="2594">
@@ -20831,7 +20831,7 @@
         <v>44686.0</v>
       </c>
       <c r="B2594" s="2" t="n">
-        <v>6.6817</v>
+        <v>6.681699999999999</v>
       </c>
     </row>
     <row r="2595">
@@ -20839,7 +20839,7 @@
         <v>44687.0</v>
       </c>
       <c r="B2595" s="2" t="n">
-        <v>6.71825</v>
+        <v>6.718249999999999</v>
       </c>
     </row>
     <row r="2596">
@@ -20871,7 +20871,7 @@
         <v>44693.0</v>
       </c>
       <c r="B2599" s="2" t="n">
-        <v>6.8275</v>
+        <v>6.827500000000001</v>
       </c>
     </row>
     <row r="2600">
@@ -20927,7 +20927,7 @@
         <v>44704.0</v>
       </c>
       <c r="B2606" s="2" t="n">
-        <v>6.66185</v>
+        <v>6.661849999999999</v>
       </c>
     </row>
     <row r="2607">
@@ -20943,7 +20943,7 @@
         <v>44706.0</v>
       </c>
       <c r="B2608" s="2" t="n">
-        <v>6.71325</v>
+        <v>6.7132499999999995</v>
       </c>
     </row>
     <row r="2609">
@@ -20959,7 +20959,7 @@
         <v>44708.0</v>
       </c>
       <c r="B2610" s="2" t="n">
-        <v>6.72035</v>
+        <v>6.720350000000001</v>
       </c>
     </row>
     <row r="2611">
@@ -20975,7 +20975,7 @@
         <v>44712.0</v>
       </c>
       <c r="B2612" s="2" t="n">
-        <v>6.6773</v>
+        <v>6.677299999999999</v>
       </c>
     </row>
     <row r="2613">
@@ -21007,7 +21007,7 @@
         <v>44718.0</v>
       </c>
       <c r="B2616" s="2" t="n">
-        <v>6.6565</v>
+        <v>6.656499999999999</v>
       </c>
     </row>
     <row r="2617">
@@ -21031,7 +21031,7 @@
         <v>44721.0</v>
       </c>
       <c r="B2619" s="2" t="n">
-        <v>6.70095</v>
+        <v>6.700950000000001</v>
       </c>
     </row>
     <row r="2620">
@@ -21039,7 +21039,7 @@
         <v>44722.0</v>
       </c>
       <c r="B2620" s="2" t="n">
-        <v>6.7313</v>
+        <v>6.731299999999999</v>
       </c>
     </row>
     <row r="2621">
@@ -21055,7 +21055,7 @@
         <v>44726.0</v>
       </c>
       <c r="B2622" s="2" t="n">
-        <v>6.7565</v>
+        <v>6.756499999999999</v>
       </c>
     </row>
     <row r="2623">
@@ -21079,7 +21079,7 @@
         <v>44729.0</v>
       </c>
       <c r="B2625" s="2" t="n">
-        <v>6.70815</v>
+        <v>6.708150000000001</v>
       </c>
     </row>
     <row r="2626">
@@ -21135,7 +21135,7 @@
         <v>44740.0</v>
       </c>
       <c r="B2632" s="2" t="n">
-        <v>6.70255</v>
+        <v>6.7025500000000005</v>
       </c>
     </row>
     <row r="2633">
@@ -21151,7 +21151,7 @@
         <v>44742.0</v>
       </c>
       <c r="B2634" s="2" t="n">
-        <v>6.69375</v>
+        <v>6.6937500000000005</v>
       </c>
     </row>
     <row r="2635">
@@ -21167,7 +21167,7 @@
         <v>44746.0</v>
       </c>
       <c r="B2636" s="2" t="n">
-        <v>6.6939</v>
+        <v>6.693900000000001</v>
       </c>
     </row>
     <row r="2637">
@@ -21183,7 +21183,7 @@
         <v>44748.0</v>
       </c>
       <c r="B2638" s="2" t="n">
-        <v>6.71705</v>
+        <v>6.7170499999999995</v>
       </c>
     </row>
     <row r="2639">
@@ -21191,7 +21191,7 @@
         <v>44749.0</v>
       </c>
       <c r="B2639" s="2" t="n">
-        <v>6.69295</v>
+        <v>6.692950000000001</v>
       </c>
     </row>
     <row r="2640">
@@ -21199,7 +21199,7 @@
         <v>44750.0</v>
       </c>
       <c r="B2640" s="2" t="n">
-        <v>6.6837</v>
+        <v>6.683699999999999</v>
       </c>
     </row>
     <row r="2641">
@@ -21215,7 +21215,7 @@
         <v>44754.0</v>
       </c>
       <c r="B2642" s="2" t="n">
-        <v>6.7365</v>
+        <v>6.7364999999999995</v>
       </c>
     </row>
     <row r="2643">
@@ -21223,7 +21223,7 @@
         <v>44755.0</v>
       </c>
       <c r="B2643" s="2" t="n">
-        <v>6.72505</v>
+        <v>6.7250499999999995</v>
       </c>
     </row>
     <row r="2644">
@@ -21271,7 +21271,7 @@
         <v>44763.0</v>
       </c>
       <c r="B2649" s="2" t="n">
-        <v>6.77165</v>
+        <v>6.771649999999999</v>
       </c>
     </row>
     <row r="2650">
@@ -21287,7 +21287,7 @@
         <v>44767.0</v>
       </c>
       <c r="B2651" s="2" t="n">
-        <v>6.7519</v>
+        <v>6.751900000000001</v>
       </c>
     </row>
     <row r="2652">
@@ -21295,7 +21295,7 @@
         <v>44768.0</v>
       </c>
       <c r="B2652" s="2" t="n">
-        <v>6.76785</v>
+        <v>6.767849999999999</v>
       </c>
     </row>
     <row r="2653">
@@ -21327,7 +21327,7 @@
         <v>44774.0</v>
       </c>
       <c r="B2656" s="2" t="n">
-        <v>6.7843</v>
+        <v>6.784300000000001</v>
       </c>
     </row>
     <row r="2657">
@@ -21343,7 +21343,7 @@
         <v>44776.0</v>
       </c>
       <c r="B2658" s="2" t="n">
-        <v>6.7595</v>
+        <v>6.759500000000001</v>
       </c>
     </row>
     <row r="2659">
@@ -21375,7 +21375,7 @@
         <v>44782.0</v>
       </c>
       <c r="B2662" s="2" t="n">
-        <v>6.7553</v>
+        <v>6.755299999999999</v>
       </c>
     </row>
     <row r="2663">
@@ -21391,7 +21391,7 @@
         <v>44784.0</v>
       </c>
       <c r="B2664" s="2" t="n">
-        <v>6.7439</v>
+        <v>6.743900000000001</v>
       </c>
     </row>
     <row r="2665">
@@ -21407,7 +21407,7 @@
         <v>44788.0</v>
       </c>
       <c r="B2666" s="2" t="n">
-        <v>6.8163</v>
+        <v>6.816300000000001</v>
       </c>
     </row>
     <row r="2667">
@@ -21415,7 +21415,7 @@
         <v>44789.0</v>
       </c>
       <c r="B2667" s="2" t="n">
-        <v>6.7923</v>
+        <v>6.792300000000001</v>
       </c>
     </row>
     <row r="2668">
@@ -21423,7 +21423,7 @@
         <v>44790.0</v>
       </c>
       <c r="B2668" s="2" t="n">
-        <v>6.79185</v>
+        <v>6.791849999999999</v>
       </c>
     </row>
     <row r="2669">
@@ -21431,7 +21431,7 @@
         <v>44791.0</v>
       </c>
       <c r="B2669" s="2" t="n">
-        <v>6.8033</v>
+        <v>6.803299999999999</v>
       </c>
     </row>
     <row r="2670">
@@ -21455,7 +21455,7 @@
         <v>44796.0</v>
       </c>
       <c r="B2672" s="2" t="n">
-        <v>6.85455</v>
+        <v>6.854550000000001</v>
       </c>
     </row>
     <row r="2673">
@@ -21471,7 +21471,7 @@
         <v>44798.0</v>
       </c>
       <c r="B2674" s="2" t="n">
-        <v>6.8515</v>
+        <v>6.851500000000001</v>
       </c>
     </row>
     <row r="2675">
@@ -21479,7 +21479,7 @@
         <v>44799.0</v>
       </c>
       <c r="B2675" s="2" t="n">
-        <v>6.89545</v>
+        <v>6.895449999999999</v>
       </c>
     </row>
     <row r="2676">
@@ -21487,7 +21487,7 @@
         <v>44802.0</v>
       </c>
       <c r="B2676" s="2" t="n">
-        <v>6.9155</v>
+        <v>6.915500000000001</v>
       </c>
     </row>
     <row r="2677">
@@ -21503,7 +21503,7 @@
         <v>44804.0</v>
       </c>
       <c r="B2678" s="2" t="n">
-        <v>6.90685</v>
+        <v>6.9068499999999995</v>
       </c>
     </row>
     <row r="2679">
@@ -21535,7 +21535,7 @@
         <v>44810.0</v>
       </c>
       <c r="B2682" s="2" t="n">
-        <v>6.9703</v>
+        <v>6.970300000000001</v>
       </c>
     </row>
     <row r="2683">
@@ -21559,7 +21559,7 @@
         <v>44813.0</v>
       </c>
       <c r="B2685" s="2" t="n">
-        <v>6.93705</v>
+        <v>6.937049999999999</v>
       </c>
     </row>
     <row r="2686">
@@ -21567,7 +21567,7 @@
         <v>44816.0</v>
       </c>
       <c r="B2686" s="2" t="n">
-        <v>6.9181</v>
+        <v>6.918099999999999</v>
       </c>
     </row>
     <row r="2687">
@@ -21607,7 +21607,7 @@
         <v>44823.0</v>
       </c>
       <c r="B2691" s="2" t="n">
-        <v>7.0047</v>
+        <v>7.004700000000001</v>
       </c>
     </row>
     <row r="2692">
@@ -21663,7 +21663,7 @@
         <v>44832.0</v>
       </c>
       <c r="B2698" s="2" t="n">
-        <v>7.16225</v>
+        <v>7.162249999999999</v>
       </c>
     </row>
     <row r="2699">
@@ -21679,7 +21679,7 @@
         <v>44834.0</v>
       </c>
       <c r="B2700" s="2" t="n">
-        <v>7.14125</v>
+        <v>7.141249999999999</v>
       </c>
     </row>
     <row r="2701">
@@ -21703,7 +21703,7 @@
         <v>44839.0</v>
       </c>
       <c r="B2703" s="2" t="n">
-        <v>7.0683</v>
+        <v>7.068300000000001</v>
       </c>
     </row>
     <row r="2704">
@@ -21751,7 +21751,7 @@
         <v>44847.0</v>
       </c>
       <c r="B2709" s="2" t="n">
-        <v>7.1779</v>
+        <v>7.177900000000001</v>
       </c>
     </row>
     <row r="2710">
@@ -21767,7 +21767,7 @@
         <v>44851.0</v>
       </c>
       <c r="B2711" s="2" t="n">
-        <v>7.2099</v>
+        <v>7.209900000000001</v>
       </c>
     </row>
     <row r="2712">
@@ -21823,7 +21823,7 @@
         <v>44860.0</v>
       </c>
       <c r="B2718" s="2" t="n">
-        <v>7.18705</v>
+        <v>7.187049999999999</v>
       </c>
     </row>
     <row r="2719">
@@ -21863,7 +21863,7 @@
         <v>44867.0</v>
       </c>
       <c r="B2723" s="2" t="n">
-        <v>7.34365</v>
+        <v>7.343649999999999</v>
       </c>
     </row>
     <row r="2724">
@@ -21967,7 +21967,7 @@
         <v>44886.0</v>
       </c>
       <c r="B2736" s="2" t="n">
-        <v>7.18205</v>
+        <v>7.182049999999999</v>
       </c>
     </row>
     <row r="2737">
@@ -21983,7 +21983,7 @@
         <v>44888.0</v>
       </c>
       <c r="B2738" s="2" t="n">
-        <v>7.15375</v>
+        <v>7.1537500000000005</v>
       </c>
     </row>
     <row r="2739">
@@ -21991,7 +21991,7 @@
         <v>44889.0</v>
       </c>
       <c r="B2739" s="2" t="n">
-        <v>7.1695</v>
+        <v>7.169500000000001</v>
       </c>
     </row>
     <row r="2740">
@@ -21999,7 +21999,7 @@
         <v>44890.0</v>
       </c>
       <c r="B2740" s="2" t="n">
-        <v>7.19345</v>
+        <v>7.1934499999999995</v>
       </c>
     </row>
     <row r="2741">
@@ -22063,7 +22063,7 @@
         <v>44902.0</v>
       </c>
       <c r="B2748" s="2" t="n">
-        <v>6.96195</v>
+        <v>6.961950000000001</v>
       </c>
     </row>
     <row r="2749">
@@ -22079,7 +22079,7 @@
         <v>44904.0</v>
       </c>
       <c r="B2750" s="2" t="n">
-        <v>6.9737</v>
+        <v>6.973699999999999</v>
       </c>
     </row>
     <row r="2751">
@@ -22087,7 +22087,7 @@
         <v>44907.0</v>
       </c>
       <c r="B2751" s="2" t="n">
-        <v>6.9893</v>
+        <v>6.989299999999999</v>
       </c>
     </row>
     <row r="2752">
@@ -22127,7 +22127,7 @@
         <v>44914.0</v>
       </c>
       <c r="B2756" s="2" t="n">
-        <v>6.9867</v>
+        <v>6.986700000000001</v>
       </c>
     </row>
     <row r="2757">
@@ -22135,7 +22135,7 @@
         <v>44915.0</v>
       </c>
       <c r="B2757" s="2" t="n">
-        <v>6.96055</v>
+        <v>6.9605500000000005</v>
       </c>
     </row>
     <row r="2758">
@@ -22143,7 +22143,7 @@
         <v>44916.0</v>
       </c>
       <c r="B2758" s="2" t="n">
-        <v>6.98635</v>
+        <v>6.986350000000001</v>
       </c>
     </row>
     <row r="2759">
@@ -22151,7 +22151,7 @@
         <v>44917.0</v>
       </c>
       <c r="B2759" s="2" t="n">
-        <v>7.0095</v>
+        <v>7.009500000000001</v>
       </c>
     </row>
     <row r="2760">
@@ -22175,7 +22175,7 @@
         <v>44922.0</v>
       </c>
       <c r="B2762" s="2" t="n">
-        <v>6.96735</v>
+        <v>6.967350000000001</v>
       </c>
     </row>
     <row r="2763">
@@ -22215,7 +22215,7 @@
         <v>44929.0</v>
       </c>
       <c r="B2767" s="2" t="n">
-        <v>6.92405</v>
+        <v>6.924049999999999</v>
       </c>
     </row>
     <row r="2768">
@@ -22223,7 +22223,7 @@
         <v>44930.0</v>
       </c>
       <c r="B2768" s="2" t="n">
-        <v>6.9009</v>
+        <v>6.900899999999999</v>
       </c>
     </row>
     <row r="2769">
@@ -22295,7 +22295,7 @@
         <v>44943.0</v>
       </c>
       <c r="B2777" s="2" t="n">
-        <v>6.7697</v>
+        <v>6.769699999999999</v>
       </c>
     </row>
     <row r="2778">
@@ -22303,7 +22303,7 @@
         <v>44944.0</v>
       </c>
       <c r="B2778" s="2" t="n">
-        <v>6.7693</v>
+        <v>6.769299999999999</v>
       </c>
     </row>
     <row r="2779">
@@ -22311,7 +22311,7 @@
         <v>44945.0</v>
       </c>
       <c r="B2779" s="2" t="n">
-        <v>6.77085</v>
+        <v>6.770849999999999</v>
       </c>
     </row>
     <row r="2780">
@@ -22327,7 +22327,7 @@
         <v>44949.0</v>
       </c>
       <c r="B2781" s="2" t="n">
-        <v>6.77635</v>
+        <v>6.776350000000001</v>
       </c>
     </row>
     <row r="2782">
@@ -22335,7 +22335,7 @@
         <v>44950.0</v>
       </c>
       <c r="B2782" s="2" t="n">
-        <v>6.78385</v>
+        <v>6.783849999999999</v>
       </c>
     </row>
     <row r="2783">
@@ -22383,7 +22383,7 @@
         <v>44958.0</v>
       </c>
       <c r="B2788" s="2" t="n">
-        <v>6.71855</v>
+        <v>6.7185500000000005</v>
       </c>
     </row>
     <row r="2789">
@@ -22391,7 +22391,7 @@
         <v>44959.0</v>
       </c>
       <c r="B2789" s="2" t="n">
-        <v>6.7383</v>
+        <v>6.738300000000001</v>
       </c>
     </row>
     <row r="2790">
@@ -22407,7 +22407,7 @@
         <v>44963.0</v>
       </c>
       <c r="B2791" s="2" t="n">
-        <v>6.8023</v>
+        <v>6.802300000000001</v>
       </c>
     </row>
     <row r="2792">
@@ -22487,7 +22487,7 @@
         <v>44977.0</v>
       </c>
       <c r="B2801" s="2" t="n">
-        <v>6.85925</v>
+        <v>6.859249999999999</v>
       </c>
     </row>
     <row r="2802">
@@ -22503,7 +22503,7 @@
         <v>44979.0</v>
       </c>
       <c r="B2803" s="2" t="n">
-        <v>6.9061</v>
+        <v>6.9060999999999995</v>
       </c>
     </row>
     <row r="2804">
@@ -22527,7 +22527,7 @@
         <v>44984.0</v>
       </c>
       <c r="B2806" s="2" t="n">
-        <v>6.9603</v>
+        <v>6.960300000000001</v>
       </c>
     </row>
     <row r="2807">
@@ -22535,7 +22535,7 @@
         <v>44985.0</v>
       </c>
       <c r="B2807" s="2" t="n">
-        <v>6.9547</v>
+        <v>6.954700000000001</v>
       </c>
     </row>
     <row r="2808">
@@ -22543,7 +22543,7 @@
         <v>44986.0</v>
       </c>
       <c r="B2808" s="2" t="n">
-        <v>6.87945</v>
+        <v>6.879449999999999</v>
       </c>
     </row>
     <row r="2809">
@@ -22599,7 +22599,7 @@
         <v>44995.0</v>
       </c>
       <c r="B2815" s="2" t="n">
-        <v>6.9389</v>
+        <v>6.938899999999999</v>
       </c>
     </row>
     <row r="2816">
@@ -22607,7 +22607,7 @@
         <v>44998.0</v>
       </c>
       <c r="B2816" s="2" t="n">
-        <v>6.8551</v>
+        <v>6.855100000000001</v>
       </c>
     </row>
     <row r="2817">
@@ -22615,7 +22615,7 @@
         <v>44999.0</v>
       </c>
       <c r="B2817" s="2" t="n">
-        <v>6.8827</v>
+        <v>6.882700000000001</v>
       </c>
     </row>
     <row r="2818">
@@ -22623,7 +22623,7 @@
         <v>45000.0</v>
       </c>
       <c r="B2818" s="2" t="n">
-        <v>6.8929</v>
+        <v>6.892899999999999</v>
       </c>
     </row>
     <row r="2819">
@@ -22671,7 +22671,7 @@
         <v>45008.0</v>
       </c>
       <c r="B2824" s="2" t="n">
-        <v>6.82985</v>
+        <v>6.8298499999999995</v>
       </c>
     </row>
     <row r="2825">
@@ -22719,7 +22719,7 @@
         <v>45016.0</v>
       </c>
       <c r="B2830" s="2" t="n">
-        <v>6.8741</v>
+        <v>6.874099999999999</v>
       </c>
     </row>
     <row r="2831">
@@ -22727,7 +22727,7 @@
         <v>45019.0</v>
       </c>
       <c r="B2831" s="2" t="n">
-        <v>6.8761</v>
+        <v>6.876099999999999</v>
       </c>
     </row>
     <row r="2832">
@@ -22735,7 +22735,7 @@
         <v>45020.0</v>
       </c>
       <c r="B2832" s="2" t="n">
-        <v>6.87855</v>
+        <v>6.878550000000001</v>
       </c>
     </row>
     <row r="2833">
@@ -22743,7 +22743,7 @@
         <v>45021.0</v>
       </c>
       <c r="B2833" s="2" t="n">
-        <v>6.8843</v>
+        <v>6.8843000000000005</v>
       </c>
     </row>
     <row r="2834">
@@ -22759,7 +22759,7 @@
         <v>45023.0</v>
       </c>
       <c r="B2835" s="2" t="n">
-        <v>6.8763</v>
+        <v>6.8763000000000005</v>
       </c>
     </row>
     <row r="2836">
@@ -22783,7 +22783,7 @@
         <v>45028.0</v>
       </c>
       <c r="B2838" s="2" t="n">
-        <v>6.88245</v>
+        <v>6.8824499999999995</v>
       </c>
     </row>
     <row r="2839">
@@ -22815,7 +22815,7 @@
         <v>45034.0</v>
       </c>
       <c r="B2842" s="2" t="n">
-        <v>6.8827</v>
+        <v>6.882700000000001</v>
       </c>
     </row>
     <row r="2843">
@@ -22831,7 +22831,7 @@
         <v>45036.0</v>
       </c>
       <c r="B2844" s="2" t="n">
-        <v>6.88445</v>
+        <v>6.884449999999999</v>
       </c>
     </row>
     <row r="2845">
@@ -22839,7 +22839,7 @@
         <v>45037.0</v>
       </c>
       <c r="B2845" s="2" t="n">
-        <v>6.90045</v>
+        <v>6.900449999999999</v>
       </c>
     </row>
     <row r="2846">
@@ -22855,7 +22855,7 @@
         <v>45041.0</v>
       </c>
       <c r="B2847" s="2" t="n">
-        <v>6.94085</v>
+        <v>6.940849999999999</v>
       </c>
     </row>
     <row r="2848">
@@ -22871,7 +22871,7 @@
         <v>45043.0</v>
       </c>
       <c r="B2849" s="2" t="n">
-        <v>6.93045</v>
+        <v>6.9304499999999996</v>
       </c>
     </row>
     <row r="2850">
@@ -22879,7 +22879,7 @@
         <v>45044.0</v>
       </c>
       <c r="B2850" s="2" t="n">
-        <v>6.9273</v>
+        <v>6.927299999999999</v>
       </c>
     </row>
     <row r="2851">
@@ -22887,7 +22887,7 @@
         <v>45047.0</v>
       </c>
       <c r="B2851" s="2" t="n">
-        <v>6.96145</v>
+        <v>6.961449999999999</v>
       </c>
     </row>
     <row r="2852">
@@ -22895,7 +22895,7 @@
         <v>45048.0</v>
       </c>
       <c r="B2852" s="2" t="n">
-        <v>6.93465</v>
+        <v>6.9346499999999995</v>
       </c>
     </row>
     <row r="2853">
@@ -22903,7 +22903,7 @@
         <v>45049.0</v>
       </c>
       <c r="B2853" s="2" t="n">
-        <v>6.92195</v>
+        <v>6.921950000000001</v>
       </c>
     </row>
     <row r="2854">
@@ -22951,7 +22951,7 @@
         <v>45057.0</v>
       </c>
       <c r="B2859" s="2" t="n">
-        <v>6.95985</v>
+        <v>6.959849999999999</v>
       </c>
     </row>
     <row r="2860">
@@ -22991,7 +22991,7 @@
         <v>45064.0</v>
       </c>
       <c r="B2864" s="2" t="n">
-        <v>7.0507</v>
+        <v>7.050700000000001</v>
       </c>
     </row>
     <row r="2865">
@@ -22999,7 +22999,7 @@
         <v>45065.0</v>
       </c>
       <c r="B2865" s="2" t="n">
-        <v>7.02415</v>
+        <v>7.024150000000001</v>
       </c>
     </row>
     <row r="2866">
@@ -23023,7 +23023,7 @@
         <v>45070.0</v>
       </c>
       <c r="B2868" s="2" t="n">
-        <v>7.0647</v>
+        <v>7.064700000000001</v>
       </c>
     </row>
     <row r="2869">
@@ -23039,7 +23039,7 @@
         <v>45072.0</v>
       </c>
       <c r="B2870" s="2" t="n">
-        <v>7.07335</v>
+        <v>7.0733500000000005</v>
       </c>
     </row>
     <row r="2871">
@@ -23047,7 +23047,7 @@
         <v>45075.0</v>
       </c>
       <c r="B2871" s="2" t="n">
-        <v>7.08445</v>
+        <v>7.0844499999999995</v>
       </c>
     </row>
     <row r="2872">
@@ -23071,7 +23071,7 @@
         <v>45078.0</v>
       </c>
       <c r="B2874" s="2" t="n">
-        <v>7.10415</v>
+        <v>7.104150000000001</v>
       </c>
     </row>
     <row r="2875">
@@ -23079,7 +23079,7 @@
         <v>45079.0</v>
       </c>
       <c r="B2875" s="2" t="n">
-        <v>7.1103</v>
+        <v>7.1103000000000005</v>
       </c>
     </row>
     <row r="2876">
@@ -23087,7 +23087,7 @@
         <v>45082.0</v>
       </c>
       <c r="B2876" s="2" t="n">
-        <v>7.1185</v>
+        <v>7.118499999999999</v>
       </c>
     </row>
     <row r="2877">
@@ -23095,7 +23095,7 @@
         <v>45083.0</v>
       </c>
       <c r="B2877" s="2" t="n">
-        <v>7.12895</v>
+        <v>7.128950000000001</v>
       </c>
     </row>
     <row r="2878">
@@ -23119,7 +23119,7 @@
         <v>45086.0</v>
       </c>
       <c r="B2880" s="2" t="n">
-        <v>7.14425</v>
+        <v>7.1442499999999995</v>
       </c>
     </row>
     <row r="2881">
@@ -23127,7 +23127,7 @@
         <v>45089.0</v>
       </c>
       <c r="B2881" s="2" t="n">
-        <v>7.15595</v>
+        <v>7.155950000000001</v>
       </c>
     </row>
     <row r="2882">
@@ -23143,7 +23143,7 @@
         <v>45091.0</v>
       </c>
       <c r="B2883" s="2" t="n">
-        <v>7.1757</v>
+        <v>7.175699999999999</v>
       </c>
     </row>
     <row r="2884">
@@ -23151,7 +23151,7 @@
         <v>45092.0</v>
       </c>
       <c r="B2884" s="2" t="n">
-        <v>7.1205</v>
+        <v>7.120499999999999</v>
       </c>
     </row>
     <row r="2885">
@@ -23159,7 +23159,7 @@
         <v>45093.0</v>
       </c>
       <c r="B2885" s="2" t="n">
-        <v>7.12815</v>
+        <v>7.128150000000001</v>
       </c>
     </row>
     <row r="2886">
@@ -23167,7 +23167,7 @@
         <v>45096.0</v>
       </c>
       <c r="B2886" s="2" t="n">
-        <v>7.1643</v>
+        <v>7.164300000000001</v>
       </c>
     </row>
     <row r="2887">
@@ -23183,7 +23183,7 @@
         <v>45098.0</v>
       </c>
       <c r="B2888" s="2" t="n">
-        <v>7.17655</v>
+        <v>7.176550000000001</v>
       </c>
     </row>
     <row r="2889">
@@ -23223,7 +23223,7 @@
         <v>45105.0</v>
       </c>
       <c r="B2893" s="2" t="n">
-        <v>7.2431</v>
+        <v>7.243100000000001</v>
       </c>
     </row>
     <row r="2894">
@@ -23231,7 +23231,7 @@
         <v>45106.0</v>
       </c>
       <c r="B2894" s="2" t="n">
-        <v>7.26875</v>
+        <v>7.268750000000001</v>
       </c>
     </row>
     <row r="2895">
@@ -23298,8 +23298,144 @@
         <v>7.214099999999999</v>
       </c>
     </row>
+    <row r="2903">
+      <c r="A2903" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B2903" s="2" t="n">
+        <v>7.16635</v>
+      </c>
+    </row>
     <row r="2904">
-      <c r="A2904" s="3" t="inlineStr">
+      <c r="A2904" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B2904" s="2" t="n">
+        <v>7.15035</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B2905" s="2" t="n">
+        <v>7.15785</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B2906" s="2" t="n">
+        <v>7.1786</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B2907" s="2" t="n">
+        <v>7.1926</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B2908" s="2" t="n">
+        <v>7.232099999999999</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B2909" s="2" t="n">
+        <v>7.174849999999999</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B2910" s="2" t="n">
+        <v>7.18945</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B2911" s="2" t="n">
+        <v>7.18565</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B2912" s="2" t="n">
+        <v>7.1373</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B2913" s="2" t="n">
+        <v>7.1531</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B2914" s="2" t="n">
+        <v>7.171500000000001</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B2915" s="2" t="n">
+        <v>7.1534</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B2916" s="2" t="n">
+        <v>7.14635</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B2917" s="2" t="n">
+        <v>7.185299999999999</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B2918" s="2" t="n">
+        <v>7.2025500000000005</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B2919" s="2" t="n">
+        <v>7.1814</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
